--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="547">
   <si>
     <t>Component</t>
   </si>
@@ -180,424 +180,427 @@
     <t>7z</t>
   </si>
   <si>
+    <t>AGMP</t>
+  </si>
+  <si>
+    <t>3Dchromatin</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>behavior process</t>
+  </si>
+  <si>
+    <t>dataMatrix</t>
+  </si>
+  <si>
+    <t>analytical covariates</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>16SrRNAseq</t>
+  </si>
+  <si>
+    <t>ab1</t>
+  </si>
+  <si>
     <t>AMP-AD</t>
   </si>
   <si>
-    <t>3Dchromatin</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>behavior process</t>
-  </si>
-  <si>
-    <t>dataMatrix</t>
-  </si>
-  <si>
-    <t>analytical covariates</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Drosophila melanogaster</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>16SrRNAseq</t>
-  </si>
-  <si>
-    <t>ab1</t>
+    <t>ABC-DS</t>
+  </si>
+  <si>
+    <t>curatedData</t>
+  </si>
+  <si>
+    <t>cellularPhysiology</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>assay metadata</t>
+  </si>
+  <si>
+    <t>assessment</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Gallus gallus</t>
+  </si>
+  <si>
+    <t>active avoidance learning behavior</t>
+  </si>
+  <si>
+    <t>abf</t>
   </si>
   <si>
     <t>BSMN</t>
   </si>
   <si>
-    <t>ABC-DS</t>
-  </si>
-  <si>
-    <t>curatedData</t>
-  </si>
-  <si>
-    <t>cellularPhysiology</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
-    <t>assay metadata</t>
-  </si>
-  <si>
-    <t>assessment</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>active avoidance learning behavior</t>
-  </si>
-  <si>
-    <t>abf</t>
+    <t>Abeta_microglia</t>
+  </si>
+  <si>
+    <t>experimentalData</t>
+  </si>
+  <si>
+    <t>chromatinActivity</t>
+  </si>
+  <si>
+    <t>normalized</t>
+  </si>
+  <si>
+    <t>biospecimen</t>
+  </si>
+  <si>
+    <t>batch effect correction</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>anxiety-related behavior</t>
+  </si>
+  <si>
+    <t>avi</t>
   </si>
   <si>
     <t>CDCP</t>
   </si>
   <si>
-    <t>Abeta_microglia</t>
-  </si>
-  <si>
-    <t>experimentalData</t>
-  </si>
-  <si>
-    <t>chromatinActivity</t>
-  </si>
-  <si>
-    <t>normalized</t>
-  </si>
-  <si>
-    <t>biospecimen</t>
-  </si>
-  <si>
-    <t>batch effect correction</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>anxiety-related behavior</t>
-  </si>
-  <si>
-    <t>avi</t>
+    <t>ACOM</t>
+  </si>
+  <si>
+    <t>clinical</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>data dictionary</t>
+  </si>
+  <si>
+    <t>chromatin accessible quantitative trait loci detection</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>ATACSeq</t>
+  </si>
+  <si>
+    <t>bai</t>
   </si>
   <si>
     <t>CMC</t>
   </si>
   <si>
-    <t>ACOM</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>processed</t>
-  </si>
-  <si>
-    <t>data dictionary</t>
-  </si>
-  <si>
-    <t>chromatin accessible quantitative trait loci detection</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>ATACSeq</t>
-  </si>
-  <si>
-    <t>bai</t>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>drugCombinationScreen</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>ID mapping</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Pan troglodytes</t>
+  </si>
+  <si>
+    <t>atomicForceMicroscopy</t>
+  </si>
+  <si>
+    <t>bam</t>
   </si>
   <si>
     <t>CSBC</t>
   </si>
   <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>drugCombinationScreen</t>
-  </si>
-  <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>ID mapping</t>
-  </si>
-  <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Pan troglodytes</t>
-  </si>
-  <si>
-    <t>atomicForceMicroscopy</t>
-  </si>
-  <si>
-    <t>bam</t>
+    <t>AD-BXD</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>drugScreen</t>
+  </si>
+  <si>
+    <t>residualized</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>autoradiography</t>
+  </si>
+  <si>
+    <t>bash script</t>
   </si>
   <si>
     <t>DHART SPORE</t>
   </si>
   <si>
-    <t>AD-BXD</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>drugScreen</t>
-  </si>
-  <si>
-    <t>residualized</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Rat</t>
-  </si>
-  <si>
-    <t>autoradiography</t>
-  </si>
-  <si>
-    <t>bash script</t>
+    <t>AD_ADRD_Exposome</t>
+  </si>
+  <si>
+    <t>electrophysiology</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>Copy number estimation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Rhesus macaque</t>
+  </si>
+  <si>
+    <t>Baker Lipidomics</t>
+  </si>
+  <si>
+    <t>bcf</t>
   </si>
   <si>
     <t>ELITE</t>
   </si>
   <si>
-    <t>AD_ADRD_Exposome</t>
-  </si>
-  <si>
-    <t>electrophysiology</t>
-  </si>
-  <si>
-    <t>manifest</t>
-  </si>
-  <si>
-    <t>Copy number estimation</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Rhesus macaque</t>
-  </si>
-  <si>
-    <t>Baker Lipidomics</t>
-  </si>
-  <si>
-    <t>bcf</t>
+    <t>ADAMTS7</t>
+  </si>
+  <si>
+    <t>epigenetics</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>Biocrates Bile Acids</t>
+  </si>
+  <si>
+    <t>bed</t>
   </si>
   <si>
     <t>GENIE</t>
   </si>
   <si>
-    <t>ADAMTS7</t>
-  </si>
-  <si>
-    <t>epigenetics</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>correlation</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Sus scrofa</t>
-  </si>
-  <si>
-    <t>Biocrates Bile Acids</t>
-  </si>
-  <si>
-    <t>bed</t>
+    <t>ADAtlas_Archive</t>
+  </si>
+  <si>
+    <t>geneExpression</t>
+  </si>
+  <si>
+    <t>covariate specification</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Biocrates MxP Quant500 XL</t>
+  </si>
+  <si>
+    <t>bed broadPeak</t>
   </si>
   <si>
     <t>M2OVE-AD</t>
   </si>
   <si>
-    <t>ADAtlas_Archive</t>
-  </si>
-  <si>
-    <t>geneExpression</t>
-  </si>
-  <si>
-    <t>covariate specification</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Biocrates MxP Quant500 XL</t>
-  </si>
-  <si>
-    <t>bed broadPeak</t>
+    <t>ADMC_ADNI1</t>
+  </si>
+  <si>
+    <t>genomicVariants</t>
+  </si>
+  <si>
+    <t>data mining</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Biocrates p180</t>
+  </si>
+  <si>
+    <t>bed gappedPeak</t>
   </si>
   <si>
     <t>MODEL-AD</t>
   </si>
   <si>
-    <t>ADMC_ADNI1</t>
-  </si>
-  <si>
-    <t>genomicVariants</t>
-  </si>
-  <si>
-    <t>data mining</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Biocrates p180</t>
-  </si>
-  <si>
-    <t>bed gappedPeak</t>
+    <t>ADMC_ADNI2-GO</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>data normalization</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Biocrates Q500</t>
+  </si>
+  <si>
+    <t>bed narrowPeak</t>
   </si>
   <si>
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>ADMC_ADNI2-GO</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>data normalization</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Biocrates Q500</t>
-  </si>
-  <si>
-    <t>bed narrowPeak</t>
+    <t>ADMC_ADNI_BakerLipidomics</t>
+  </si>
+  <si>
+    <t>immunoassay</t>
+  </si>
+  <si>
+    <t>de-novo assembly</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bisulfiteSeq</t>
+  </si>
+  <si>
+    <t>bedgraph</t>
   </si>
   <si>
     <t>PEC</t>
   </si>
   <si>
-    <t>ADMC_ADNI_BakerLipidomics</t>
-  </si>
-  <si>
-    <t>immunoassay</t>
-  </si>
-  <si>
-    <t>de-novo assembly</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>bisulfiteSeq</t>
-  </si>
-  <si>
-    <t>bedgraph</t>
+    <t>ADMC_ADNI_Biocrates_MxP_Q500</t>
+  </si>
+  <si>
+    <t>isoformExpression</t>
+  </si>
+  <si>
+    <t>differential expression</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Blood Chemistry Measurement</t>
+  </si>
+  <si>
+    <t>bgzip</t>
   </si>
   <si>
     <t>PSON</t>
   </si>
   <si>
-    <t>ADMC_ADNI_Biocrates_MxP_Q500</t>
-  </si>
-  <si>
-    <t>isoformExpression</t>
-  </si>
-  <si>
-    <t>differential expression</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Blood Chemistry Measurement</t>
-  </si>
-  <si>
-    <t>bgzip</t>
+    <t>ADMC_ADNI_NightingaleNMR</t>
+  </si>
+  <si>
+    <t>kinomics</t>
+  </si>
+  <si>
+    <t>differential methylation</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>brightfieldMicroscopy</t>
+  </si>
+  <si>
+    <t>bigwig</t>
   </si>
   <si>
     <t>Psych-AD</t>
   </si>
   <si>
-    <t>ADMC_ADNI_NightingaleNMR</t>
-  </si>
-  <si>
-    <t>kinomics</t>
-  </si>
-  <si>
-    <t>differential methylation</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>brightfieldMicroscopy</t>
-  </si>
-  <si>
-    <t>bigwig</t>
+    <t>ADMC_ADNI_UHawaiiGutMetabolites</t>
+  </si>
+  <si>
+    <t>metabolomics</t>
+  </si>
+  <si>
+    <t>differential network analysis</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>cellViabilityAssay</t>
+  </si>
+  <si>
+    <t>bim</t>
   </si>
   <si>
     <t>Resilience-AD</t>
   </si>
   <si>
-    <t>ADMC_ADNI_UHawaiiGutMetabolites</t>
-  </si>
-  <si>
-    <t>metabolomics</t>
-  </si>
-  <si>
-    <t>differential network analysis</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>cellViabilityAssay</t>
-  </si>
-  <si>
-    <t>bim</t>
+    <t>ADMC_UPenn</t>
+  </si>
+  <si>
+    <t>metagenomics</t>
+  </si>
+  <si>
+    <t>DNA methylation imputation</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ChIPSeq</t>
+  </si>
+  <si>
+    <t>bpm</t>
   </si>
   <si>
     <t>Synodos</t>
-  </si>
-  <si>
-    <t>ADMC_UPenn</t>
-  </si>
-  <si>
-    <t>metagenomics</t>
-  </si>
-  <si>
-    <t>DNA methylation imputation</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ChIPSeq</t>
-  </si>
-  <si>
-    <t>bpm</t>
   </si>
   <si>
     <t>Aging-PheWAS</t>
@@ -29148,34 +29151,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29184,6 +29187,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
+      <formula1>Sheet2!$H$2:$H$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2:$G$97</formula1>
@@ -29215,9 +29221,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
-      <formula1>Sheet2!$H$2:$H$17</formula1>
-    </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -29761,1477 +29764,1480 @@
       <c r="G18" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="H18" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93">
       <c r="F93" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95">
       <c r="F95" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96">
       <c r="F96" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97">
       <c r="F97" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98">
       <c r="F98" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99">
       <c r="F99" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100">
       <c r="F100" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101">
       <c r="F101" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102">
       <c r="F102" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103">
       <c r="F103" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104">
       <c r="F104" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105">
       <c r="F105" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106">
       <c r="F106" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107">
       <c r="F107" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108">
       <c r="F108" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109">
       <c r="F109" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="110">
       <c r="F110" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111">
       <c r="F111" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112">
       <c r="F112" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113">
       <c r="F113" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114">
       <c r="F114" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115">
       <c r="F115" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116">
       <c r="F116" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117">
       <c r="F117" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118">
       <c r="F118" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119">
       <c r="F119" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120">
       <c r="I120" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121">
       <c r="I121" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122">
       <c r="I122" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123">
       <c r="I123" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124">
       <c r="I124" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125">
       <c r="I125" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126">
       <c r="I126" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127">
       <c r="I127" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128">
       <c r="I128" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129">
       <c r="I129" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130">
       <c r="I130" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131">
       <c r="I131" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132">
       <c r="I132" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="133">
       <c r="I133" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134">
       <c r="I134" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135">
       <c r="I135" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136">
       <c r="I136" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137">
       <c r="I137" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138">
       <c r="I138" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139">
       <c r="I139" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140">
       <c r="I140" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141">
       <c r="I141" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142">
       <c r="I142" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143">
       <c r="I143" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144">
       <c r="I144" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145">
       <c r="I145" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146">
       <c r="I146" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147">
       <c r="I147" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148">
       <c r="I148" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149">
       <c r="I149" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150">
       <c r="I150" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151">
       <c r="I151" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152">
       <c r="I152" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153">
       <c r="I153" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154">
       <c r="I154" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155">
       <c r="I155" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156">
       <c r="I156" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157">
       <c r="I157" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="158">
       <c r="I158" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="159">
       <c r="I159" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160">
       <c r="I160" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161">
       <c r="I161" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162">
       <c r="I162" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163">
       <c r="I163" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164">
       <c r="I164" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="165">
       <c r="I165" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166">
       <c r="I166" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="167">
       <c r="I167" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168">
       <c r="I168" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169">
       <c r="I169" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170">
       <c r="I170" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171">
       <c r="I171" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172">
       <c r="I172" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173">
       <c r="I173" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="174">
       <c r="I174" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="175">
       <c r="I175" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="548">
   <si>
     <t>Component</t>
   </si>
@@ -900,688 +900,691 @@
     <t>hdf</t>
   </si>
   <si>
+    <t>DAM Models_CU</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>immunofluorescence</t>
+  </si>
+  <si>
+    <t>hic</t>
+  </si>
+  <si>
     <t>DiCAD</t>
   </si>
   <si>
-    <t>quality control</t>
-  </si>
-  <si>
-    <t>immunofluorescence</t>
-  </si>
-  <si>
-    <t>hic</t>
+    <t>search engine output files</t>
+  </si>
+  <si>
+    <t>immunohistochemistry</t>
+  </si>
+  <si>
+    <t>html</t>
   </si>
   <si>
     <t>diseasePseudotime</t>
   </si>
   <si>
-    <t>search engine output files</t>
-  </si>
-  <si>
-    <t>immunohistochemistry</t>
-  </si>
-  <si>
-    <t>html</t>
+    <t>Sequence alignment</t>
+  </si>
+  <si>
+    <t>in vivo bioluminescence</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
   </si>
   <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>Sequence alignment</t>
-  </si>
-  <si>
-    <t>in vivo bioluminescence</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
+    <t>somatic mutation calling</t>
+  </si>
+  <si>
+    <t>ISOSeq</t>
+  </si>
+  <si>
+    <t>idat</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>somatic mutation calling</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
-  </si>
-  <si>
-    <t>idat</t>
+    <t>statistical network reconstruction</t>
+  </si>
+  <si>
+    <t>jumpingLibrary</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>statistical network reconstruction</t>
-  </si>
-  <si>
-    <t>jumpingLibrary</t>
-  </si>
-  <si>
-    <t>idx</t>
+    <t>structural variation detection</t>
+  </si>
+  <si>
+    <t>kinesthetic behavior</t>
+  </si>
+  <si>
+    <t>jpg</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>structural variation detection</t>
-  </si>
-  <si>
-    <t>kinesthetic behavior</t>
-  </si>
-  <si>
-    <t>jpg</t>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>json</t>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>locs</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>microRNAcounts</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>mirnaArray</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>scCGIseq</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>scCGIseq</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scirnaSeq</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scrnaSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>Plxnb1_KO</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>RADEL</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>RNAseq_Harmonization</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>rnaSeqReprocessing</t>
@@ -29166,8 +29169,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29176,8 +29179,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29200,9 +29203,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$175</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$119</formula1>
     </dataValidation>
@@ -29217,6 +29217,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$176</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
@@ -31240,6 +31243,11 @@
         <v>546</v>
       </c>
     </row>
+    <row r="176">
+      <c r="I176" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29154,14 +29154,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29174,14 +29174,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29154,14 +29154,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29174,14 +29174,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="549">
   <si>
     <t>Component</t>
   </si>
@@ -900,688 +900,691 @@
     <t>hdf</t>
   </si>
   <si>
+    <t>CUMC_Compounds_Microglia</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>immunofluorescence</t>
+  </si>
+  <si>
+    <t>hic</t>
+  </si>
+  <si>
     <t>DAM Models_CU</t>
   </si>
   <si>
-    <t>quality control</t>
-  </si>
-  <si>
-    <t>immunofluorescence</t>
-  </si>
-  <si>
-    <t>hic</t>
+    <t>search engine output files</t>
+  </si>
+  <si>
+    <t>immunohistochemistry</t>
+  </si>
+  <si>
+    <t>html</t>
   </si>
   <si>
     <t>DiCAD</t>
   </si>
   <si>
-    <t>search engine output files</t>
-  </si>
-  <si>
-    <t>immunohistochemistry</t>
-  </si>
-  <si>
-    <t>html</t>
+    <t>Sequence alignment</t>
+  </si>
+  <si>
+    <t>in vivo bioluminescence</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
   </si>
   <si>
     <t>diseasePseudotime</t>
   </si>
   <si>
-    <t>Sequence alignment</t>
-  </si>
-  <si>
-    <t>in vivo bioluminescence</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
+    <t>somatic mutation calling</t>
+  </si>
+  <si>
+    <t>ISOSeq</t>
+  </si>
+  <si>
+    <t>idat</t>
   </si>
   <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>somatic mutation calling</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
-  </si>
-  <si>
-    <t>idat</t>
+    <t>statistical network reconstruction</t>
+  </si>
+  <si>
+    <t>jumpingLibrary</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>statistical network reconstruction</t>
-  </si>
-  <si>
-    <t>jumpingLibrary</t>
-  </si>
-  <si>
-    <t>idx</t>
+    <t>structural variation detection</t>
+  </si>
+  <si>
+    <t>kinesthetic behavior</t>
+  </si>
+  <si>
+    <t>jpg</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>structural variation detection</t>
-  </si>
-  <si>
-    <t>kinesthetic behavior</t>
-  </si>
-  <si>
-    <t>jpg</t>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>json</t>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>locs</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>microRNAcounts</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>mirnaArray</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>scCGIseq</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>scCGIseq</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scirnaSeq</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scrnaSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>Plxnb1_KO</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>RADEL</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>RNAseq_Harmonization</t>
@@ -29154,14 +29157,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29169,19 +29172,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29218,11 +29221,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$176</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$177</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -31248,6 +31251,11 @@
         <v>547</v>
       </c>
     </row>
+    <row r="177">
+      <c r="I177" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -714,7 +714,7 @@
     <t>APOEPSC</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>weight</t>
   </si>
   <si>
     <t>genome-wide pleiotropy</t>
@@ -29157,12 +29157,12 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29172,14 +29172,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="553">
   <si>
     <t>Component</t>
   </si>
@@ -894,706 +894,718 @@
     <t>purity</t>
   </si>
   <si>
+    <t>Illumina EPIC Array</t>
+  </si>
+  <si>
+    <t>hdf</t>
+  </si>
+  <si>
+    <t>CUMC_Compounds_Microglia</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
     <t>Immunocytochemistry</t>
   </si>
   <si>
-    <t>hdf</t>
-  </si>
-  <si>
-    <t>CUMC_Compounds_Microglia</t>
-  </si>
-  <si>
-    <t>quality control</t>
+    <t>hic</t>
+  </si>
+  <si>
+    <t>DAM Models_CU</t>
+  </si>
+  <si>
+    <t>search engine output files</t>
   </si>
   <si>
     <t>immunofluorescence</t>
   </si>
   <si>
-    <t>hic</t>
-  </si>
-  <si>
-    <t>DAM Models_CU</t>
-  </si>
-  <si>
-    <t>search engine output files</t>
+    <t>html</t>
+  </si>
+  <si>
+    <t>DiCAD</t>
+  </si>
+  <si>
+    <t>Sequence alignment</t>
   </si>
   <si>
     <t>immunohistochemistry</t>
   </si>
   <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>DiCAD</t>
-  </si>
-  <si>
-    <t>Sequence alignment</t>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>diseasePseudotime</t>
+  </si>
+  <si>
+    <t>somatic mutation calling</t>
   </si>
   <si>
     <t>in vivo bioluminescence</t>
   </si>
   <si>
-    <t>hyperlink</t>
-  </si>
-  <si>
-    <t>diseasePseudotime</t>
-  </si>
-  <si>
-    <t>somatic mutation calling</t>
+    <t>idat</t>
+  </si>
+  <si>
+    <t>DukeAD_PTSD</t>
+  </si>
+  <si>
+    <t>statistical network reconstruction</t>
   </si>
   <si>
     <t>ISOSeq</t>
   </si>
   <si>
-    <t>idat</t>
-  </si>
-  <si>
-    <t>DukeAD_PTSD</t>
-  </si>
-  <si>
-    <t>statistical network reconstruction</t>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>ELPSCRNA</t>
+  </si>
+  <si>
+    <t>structural variation detection</t>
   </si>
   <si>
     <t>jumpingLibrary</t>
   </si>
   <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>ELPSCRNA</t>
-  </si>
-  <si>
-    <t>structural variation detection</t>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>Emory_ADRC</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning</t>
   </si>
   <si>
     <t>kinesthetic behavior</t>
   </si>
   <si>
-    <t>jpg</t>
-  </si>
-  <si>
-    <t>Emory_ADRC</t>
-  </si>
-  <si>
-    <t>Supervised Machine Learning</t>
+    <t>json</t>
+  </si>
+  <si>
+    <t>EmoryDrosophilaTau</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
   </si>
   <si>
     <t>label free mass spectrometry</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>EmoryDrosophilaTau</t>
-  </si>
-  <si>
-    <t>transcript quantification</t>
+    <t>locs</t>
+  </si>
+  <si>
+    <t>EpiGABA</t>
+  </si>
+  <si>
+    <t>variancePartition</t>
   </si>
   <si>
     <t>Laser Speckle Imaging</t>
   </si>
   <si>
-    <t>locs</t>
-  </si>
-  <si>
-    <t>EpiGABA</t>
-  </si>
-  <si>
-    <t>variancePartition</t>
+    <t>maf</t>
+  </si>
+  <si>
+    <t>EpiMap</t>
+  </si>
+  <si>
+    <t>Variant calling</t>
   </si>
   <si>
     <t>LC-MS</t>
   </si>
   <si>
-    <t>maf</t>
-  </si>
-  <si>
-    <t>EpiMap</t>
-  </si>
-  <si>
-    <t>Variant calling</t>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>eQTLmetaAnalysis</t>
+  </si>
+  <si>
+    <t>visualization</t>
   </si>
   <si>
     <t>LC-MSMS</t>
   </si>
   <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>eQTLmetaAnalysis</t>
-  </si>
-  <si>
-    <t>visualization</t>
+    <t>md</t>
+  </si>
+  <si>
+    <t>FreshMicro</t>
   </si>
   <si>
     <t>LC-SRM</t>
   </si>
   <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>FreshMicro</t>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>HBI_scRNAseq</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
   </si>
   <si>
-    <t>mov</t>
-  </si>
-  <si>
-    <t>HBI_scRNAseq</t>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>HBTRC</t>
   </si>
   <si>
     <t>lentiMPRA</t>
   </si>
   <si>
-    <t>mp4</t>
-  </si>
-  <si>
-    <t>HBTRC</t>
+    <t>msf</t>
+  </si>
+  <si>
+    <t>HDAC1-cKOBrain</t>
   </si>
   <si>
     <t>LFP</t>
   </si>
   <si>
-    <t>msf</t>
-  </si>
-  <si>
-    <t>HDAC1-cKOBrain</t>
+    <t>mtx</t>
+  </si>
+  <si>
+    <t>HumanFC</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
-    <t>mtx</t>
-  </si>
-  <si>
-    <t>HumanFC</t>
+    <t>nirs</t>
+  </si>
+  <si>
+    <t>IL10_APPmouse</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
   </si>
   <si>
-    <t>nirs</t>
-  </si>
-  <si>
-    <t>IL10_APPmouse</t>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>iNiAstshRNA</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
   </si>
   <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>iNiAstshRNA</t>
+    <t>pdresult</t>
+  </si>
+  <si>
+    <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
   </si>
   <si>
-    <t>pdresult</t>
-  </si>
-  <si>
-    <t>IntegrativePathwayAnalysis</t>
+    <t>pdstudy</t>
+  </si>
+  <si>
+    <t>iPSC</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>pdstudy</t>
-  </si>
-  <si>
-    <t>iPSC</t>
+    <t>pdview</t>
+  </si>
+  <si>
+    <t>iPSC-HiC</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
   </si>
   <si>
-    <t>pdview</t>
-  </si>
-  <si>
-    <t>iPSC-HiC</t>
+    <t>plink</t>
+  </si>
+  <si>
+    <t>iPSCAstrocytes</t>
   </si>
   <si>
     <t>MDMS-SL</t>
   </si>
   <si>
-    <t>plink</t>
-  </si>
-  <si>
-    <t>iPSCAstrocytes</t>
+    <t>png</t>
+  </si>
+  <si>
+    <t>iPSCMicroglia</t>
   </si>
   <si>
     <t>memory behavior</t>
   </si>
   <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>iPSCMicroglia</t>
+    <t>powerpoint</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
     <t>Metabolon</t>
   </si>
   <si>
-    <t>powerpoint</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
+    <t>Python script</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
     <t>methylationArray</t>
   </si>
   <si>
-    <t>Python script</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
+    <t>pzfx</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
     <t>MIB/MS</t>
   </si>
   <si>
-    <t>pzfx</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_APP.PS1</t>
+    <t>R script</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>R script</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
+    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
     <t>mirnaArray</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
     <t>mirnaSeq</t>
   </si>
   <si>
-    <t>RCC</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_MicrobiomePilot</t>
+    <t>RData</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
     <t>MRI</t>
   </si>
   <si>
-    <t>RData</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_PrimaryScreen</t>
+    <t>recal</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
     <t>mRNAcounts</t>
   </si>
   <si>
-    <t>recal</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_StrainValidation</t>
+    <t>RLF</t>
+  </si>
+  <si>
+    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
+  </si>
+  <si>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
+  </si>
+  <si>
+    <t>LBP</t>
   </si>
   <si>
     <t>MudPIT</t>
   </si>
   <si>
-    <t>RLF</t>
-  </si>
-  <si>
-    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
+    <t>saf</t>
+  </si>
+  <si>
+    <t>LillyMicroglia</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
-    <t>rmd</t>
-  </si>
-  <si>
-    <t>LBP</t>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>LLFS</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
   </si>
   <si>
-    <t>saf</t>
-  </si>
-  <si>
-    <t>LillyMicroglia</t>
+    <t>sav</t>
+  </si>
+  <si>
+    <t>lncRNA Pilot</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
   </si>
   <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>LLFS</t>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>MARS WISCONSIN</t>
   </si>
   <si>
     <t>novelty response behavior</t>
   </si>
   <si>
-    <t>sav</t>
-  </si>
-  <si>
-    <t>lncRNA Pilot</t>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>MayoeGWAS</t>
   </si>
   <si>
     <t>open field test</t>
   </si>
   <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>MARS WISCONSIN</t>
+    <t>Sentrix descriptor file</t>
+  </si>
+  <si>
+    <t>MayoHippocampus</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
   </si>
   <si>
-    <t>seg</t>
-  </si>
-  <si>
-    <t>MayoeGWAS</t>
+    <t>sf3</t>
+  </si>
+  <si>
+    <t>MayoLOADGWAS</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
   </si>
   <si>
-    <t>Sentrix descriptor file</t>
-  </si>
-  <si>
-    <t>MayoHippocampus</t>
+    <t>sif</t>
+  </si>
+  <si>
+    <t>MayoPilotRNAseq</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
   </si>
   <si>
-    <t>sf3</t>
-  </si>
-  <si>
-    <t>MayoLOADGWAS</t>
+    <t>sqlite</t>
+  </si>
+  <si>
+    <t>MayoRNAseq</t>
   </si>
   <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>sif</t>
-  </si>
-  <si>
-    <t>MayoPilotRNAseq</t>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>MC-BrAD</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
   </si>
   <si>
-    <t>sqlite</t>
-  </si>
-  <si>
-    <t>MayoRNAseq</t>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>MC-CAA</t>
   </si>
   <si>
     <t>Positron Emission Tomography</t>
   </si>
   <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>MC-BrAD</t>
+    <t>svs</t>
+  </si>
+  <si>
+    <t>MC_snRNA</t>
   </si>
   <si>
     <t>proximity extension assay</t>
   </si>
   <si>
-    <t>svg</t>
-  </si>
-  <si>
-    <t>MC-CAA</t>
+    <t>Synapse Table</t>
+  </si>
+  <si>
+    <t>MCMPS</t>
   </si>
   <si>
     <t>questionnaire</t>
   </si>
   <si>
-    <t>svs</t>
-  </si>
-  <si>
-    <t>MC_snRNA</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>MEF2_Resilience</t>
   </si>
   <si>
     <t>Rader Lipidomics</t>
   </si>
   <si>
-    <t>Synapse Table</t>
-  </si>
-  <si>
-    <t>MCMPS</t>
+    <t>tagAlign</t>
+  </si>
+  <si>
+    <t>MindPhenomeKB</t>
   </si>
   <si>
     <t>Real Time PCR</t>
   </si>
   <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>MEF2_Resilience</t>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>miR155</t>
   </si>
   <si>
     <t>Ribo-Seq</t>
   </si>
   <si>
-    <t>tagAlign</t>
-  </si>
-  <si>
-    <t>MindPhenomeKB</t>
+    <t>tbi</t>
+  </si>
+  <si>
+    <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
     <t>rnaArray</t>
   </si>
   <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>miR155</t>
+    <t>tif</t>
+  </si>
+  <si>
+    <t>MOA-PAD</t>
   </si>
   <si>
     <t>rnaSeq</t>
   </si>
   <si>
-    <t>tbi</t>
-  </si>
-  <si>
-    <t>MIT_ROSMAP_Multiomics</t>
+    <t>tranches</t>
+  </si>
+  <si>
+    <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
     <t>rotarod performance test</t>
   </si>
   <si>
-    <t>tif</t>
-  </si>
-  <si>
-    <t>MOA-PAD</t>
+    <t>tsv</t>
+  </si>
+  <si>
+    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
     <t>RPPA</t>
   </si>
   <si>
-    <t>tranches</t>
-  </si>
-  <si>
-    <t>MODEL-AD_5XFAD</t>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>MODEL-AD_APOE4_KI</t>
+  </si>
+  <si>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
+  </si>
+  <si>
+    <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
   </si>
   <si>
-    <t>tsv</t>
-  </si>
-  <si>
-    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
+    <t>wiggle</t>
+  </si>
+  <si>
+    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
     <t>Sanger sequencing</t>
   </si>
   <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t>MODEL-AD_APOE4_KI</t>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
     <t>scale</t>
   </si>
   <si>
-    <t>vcf</t>
-  </si>
-  <si>
-    <t>MODEL-AD_APOE4_Trem2</t>
+    <t>yaml</t>
+  </si>
+  <si>
+    <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
     <t>scATACSeq</t>
   </si>
   <si>
-    <t>wiggle</t>
-  </si>
-  <si>
-    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
     <t>scCGIseq</t>
   </si>
   <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>MODEL-AD_hAbeta_KI</t>
+    <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
     <t>scirnaSeq</t>
   </si>
   <si>
-    <t>yaml</t>
-  </si>
-  <si>
-    <t>MODEL-AD_Harmonization</t>
+    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
     <t>scrnaSeq</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
+    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
     <t>scwholeGenomeSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_hTau_Trem2</t>
+    <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
     <t>SiMoA</t>
   </si>
   <si>
-    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
+    <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
+    <t>MouseHAL</t>
   </si>
   <si>
     <t>snpArray</t>
   </si>
   <si>
-    <t>MODEL-AD_Rat_F344</t>
+    <t>MRGWAS</t>
   </si>
   <si>
     <t>snrnaSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Trem2_R47H</t>
+    <t>MSBB</t>
   </si>
   <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
-    <t>MouseHAL</t>
+    <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
     <t>STARRSeq</t>
   </si>
   <si>
-    <t>MRGWAS</t>
+    <t>MSDM</t>
   </si>
   <si>
     <t>TMT quantitation</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>MSMM</t>
+  </si>
+  <si>
+    <t>TotalRNAseq</t>
+  </si>
+  <si>
+    <t>MSSMiPSC</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
   </si>
   <si>
-    <t>MSBB_ArrayTissuePanel</t>
+    <t>mtDNA_AD</t>
   </si>
   <si>
     <t>UC Davis GCTOF</t>
   </si>
   <si>
-    <t>MSDM</t>
+    <t>NAPS</t>
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
-    <t>MSMM</t>
+    <t>NHP-Chimpanzee</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
-    <t>MSSMiPSC</t>
+    <t>NHP-Macaque</t>
   </si>
   <si>
     <t>UPLC-MSMS</t>
   </si>
   <si>
-    <t>mtDNA_AD</t>
+    <t>NPS-AD</t>
   </si>
   <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
-    <t>NAPS</t>
+    <t>OFMM</t>
   </si>
   <si>
     <t>von Frey test</t>
   </si>
   <si>
-    <t>NHP-Chimpanzee</t>
+    <t>omicsADDS</t>
   </si>
   <si>
     <t>westernBlot</t>
   </si>
   <si>
-    <t>NHP-Macaque</t>
+    <t>Organoid_scRNAseq</t>
   </si>
   <si>
     <t>wheel running</t>
   </si>
   <si>
-    <t>NPS-AD</t>
+    <t>Plxnb1_KO</t>
   </si>
   <si>
     <t>whole-cell patch clamp</t>
   </si>
   <si>
-    <t>OFMM</t>
+    <t>RADEL</t>
   </si>
   <si>
     <t>wholeGenomeSeq</t>
   </si>
   <si>
-    <t>omicsADDS</t>
+    <t>RNAseq_Harmonization</t>
   </si>
   <si>
     <t>Wishart Catecholamines</t>
   </si>
   <si>
-    <t>Organoid_scRNAseq</t>
+    <t>rnaSeqReprocessing</t>
   </si>
   <si>
     <t>Wishart High Value Metabolites</t>
   </si>
   <si>
-    <t>Plxnb1_KO</t>
+    <t>rnaSeqSampleSwap</t>
   </si>
   <si>
     <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
-    <t>RADEL</t>
-  </si>
-  <si>
-    <t>RNAseq_Harmonization</t>
-  </si>
-  <si>
-    <t>rnaSeqReprocessing</t>
-  </si>
-  <si>
-    <t>rnaSeqSampleSwap</t>
   </si>
   <si>
     <t>ROSMAP</t>
@@ -29162,29 +29174,29 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29207,7 +29219,7 @@
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
-      <formula1>Sheet2!$F$2:$F$119</formula1>
+      <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$9</formula1>
@@ -30967,293 +30979,305 @@
       </c>
     </row>
     <row r="120">
+      <c r="F120" s="7" t="s">
+        <v>491</v>
+      </c>
       <c r="I120" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121">
+      <c r="F121" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="I121" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122">
+      <c r="F122" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="I122" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123">
+      <c r="F123" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="I123" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="124">
       <c r="I124" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125">
       <c r="I125" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126">
       <c r="I126" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="127">
       <c r="I127" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128">
       <c r="I128" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="129">
       <c r="I129" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130">
       <c r="I130" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131">
       <c r="I131" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132">
       <c r="I132" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="133">
       <c r="I133" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134">
       <c r="I134" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135">
       <c r="I135" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136">
       <c r="I136" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137">
       <c r="I137" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138">
       <c r="I138" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139">
       <c r="I139" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140">
       <c r="I140" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="141">
       <c r="I141" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142">
       <c r="I142" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143">
       <c r="I143" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144">
       <c r="I144" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145">
       <c r="I145" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="146">
       <c r="I146" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147">
       <c r="I147" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148">
       <c r="I148" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149">
       <c r="I149" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150">
       <c r="I150" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151">
       <c r="I151" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="152">
       <c r="I152" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="153">
       <c r="I153" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="154">
       <c r="I154" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="155">
       <c r="I155" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156">
       <c r="I156" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157">
       <c r="I157" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158">
       <c r="I158" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159">
       <c r="I159" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="160">
       <c r="I160" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="161">
       <c r="I161" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162">
       <c r="I162" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="163">
       <c r="I163" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="164">
       <c r="I164" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165">
       <c r="I165" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166">
       <c r="I166" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="167">
       <c r="I167" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168">
       <c r="I168" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169">
       <c r="I169" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170">
       <c r="I170" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171">
       <c r="I171" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="172">
       <c r="I172" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173">
       <c r="I173" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174">
       <c r="I174" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="175">
       <c r="I175" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176">
       <c r="I176" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="177">
       <c r="I177" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29174,29 +29174,29 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29169,23 +29169,23 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29194,9 +29194,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="554">
   <si>
     <t>Component</t>
   </si>
@@ -1335,277 +1335,280 @@
     <t>Synapse Table</t>
   </si>
   <si>
+    <t>mCITE-Seq</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>Plxnb1_KO</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>RADEL</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>RNAseq_Harmonization</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>rnaSeqReprocessing</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>rnaSeqSampleSwap</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>ROSMAP</t>
@@ -29174,9 +29177,9 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29184,22 +29187,25 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$178</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$3</formula1>
     </dataValidation>
@@ -29236,9 +29242,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$177</formula1>
-    </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -31280,6 +31283,11 @@
         <v>552</v>
       </c>
     </row>
+    <row r="178">
+      <c r="I178" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="555">
   <si>
     <t>Component</t>
   </si>
@@ -1140,472 +1140,475 @@
     <t>powerpoint</t>
   </si>
   <si>
+    <t>ISB_Taner_CollagenDomain</t>
+  </si>
+  <si>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
+  </si>
+  <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>Plxnb1_KO</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>RADEL</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>RNAseq_Harmonization</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>rnaSeqReprocessing</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>rnaSeqSampleSwap</t>
@@ -29172,22 +29175,22 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29197,15 +29200,12 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$178</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$3</formula1>
     </dataValidation>
@@ -29223,6 +29223,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$179</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
@@ -31288,6 +31291,11 @@
         <v>553</v>
       </c>
     </row>
+    <row r="179">
+      <c r="I179" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="559">
   <si>
     <t>Component</t>
   </si>
@@ -1149,463 +1149,475 @@
     <t>Python script</t>
   </si>
   <si>
+    <t>ISB_Taner_Cxcl10</t>
+  </si>
+  <si>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
+  </si>
+  <si>
+    <t>ISB_Taner_PTN_MDK</t>
+  </si>
+  <si>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
+  </si>
+  <si>
+    <t>ISB_Taner_sIL10r_sIL4r</t>
+  </si>
+  <si>
+    <t>microRNAcounts</t>
+  </si>
+  <si>
+    <t>ISB_Taner_TGFbeta</t>
+  </si>
+  <si>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
-  </si>
-  <si>
     <t>Plxnb1_KO</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
-  </si>
-  <si>
     <t>RADEL</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
-  </si>
-  <si>
     <t>RNAseq_Harmonization</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>rnaSeqReprocessing</t>
@@ -29180,29 +29192,29 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29225,7 +29237,7 @@
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$179</formula1>
+      <formula1>Sheet2!$I$2:$I$183</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
@@ -31296,6 +31308,26 @@
         <v>554</v>
       </c>
     </row>
+    <row r="180">
+      <c r="I180" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="I181" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="I182" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="I183" s="7" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="560">
   <si>
     <t>Component</t>
   </si>
@@ -1786,6 +1786,9 @@
   </si>
   <si>
     <t>WGS_Harmonization</t>
+  </si>
+  <si>
+    <t>WHICAP_Immunoprofiling</t>
   </si>
   <si>
     <t>Yale-ASD</t>
@@ -29187,34 +29190,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29230,14 +29233,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2:$G$97</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$184</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$183</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
@@ -31328,6 +31331,11 @@
         <v>558</v>
       </c>
     </row>
+    <row r="184">
+      <c r="I184" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29190,29 +29190,29 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29190,14 +29190,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29205,19 +29205,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29200,23 +29200,23 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29190,34 +29190,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29195,29 +29195,29 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29190,17 +29190,17 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29210,14 +29210,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29190,34 +29190,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
   <si>
     <t>Component</t>
   </si>
@@ -729,885 +729,897 @@
     <t>dat</t>
   </si>
   <si>
+    <t>Ast10_Communication</t>
+  </si>
+  <si>
+    <t>genotype imputation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>elevated T maze apparatus method</t>
+  </si>
+  <si>
+    <t>DICOM</t>
+  </si>
+  <si>
     <t>Banner</t>
   </si>
   <si>
-    <t>genotype imputation</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>elevated T maze apparatus method</t>
-  </si>
-  <si>
-    <t>DICOM</t>
+    <t>genotypeAncestry</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>doc</t>
   </si>
   <si>
     <t>BCM-DMAS</t>
   </si>
   <si>
-    <t>genotypeAncestry</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>doc</t>
+    <t>hidden confounder detection</t>
+  </si>
+  <si>
+    <t>errBisulfiteSeq</t>
+  </si>
+  <si>
+    <t>dup</t>
   </si>
   <si>
     <t>BipSeq</t>
   </si>
   <si>
-    <t>hidden confounder detection</t>
-  </si>
-  <si>
-    <t>errBisulfiteSeq</t>
-  </si>
-  <si>
-    <t>dup</t>
+    <t>manifold learning</t>
+  </si>
+  <si>
+    <t>exomeSeq</t>
+  </si>
+  <si>
+    <t>excel</t>
   </si>
   <si>
     <t>BLSA</t>
   </si>
   <si>
-    <t>manifold learning</t>
-  </si>
-  <si>
-    <t>exomeSeq</t>
-  </si>
-  <si>
-    <t>excel</t>
+    <t>Mendelian randomization analysis</t>
+  </si>
+  <si>
+    <t>FIA-MSMS</t>
+  </si>
+  <si>
+    <t>fam</t>
   </si>
   <si>
     <t>BPSD_AD_AnimalStudy_NU</t>
   </si>
   <si>
-    <t>Mendelian randomization analysis</t>
-  </si>
-  <si>
-    <t>FIA-MSMS</t>
-  </si>
-  <si>
-    <t>fam</t>
+    <t>methylation quantitative trait loci detection</t>
+  </si>
+  <si>
+    <t>FitBark</t>
+  </si>
+  <si>
+    <t>fasta</t>
   </si>
   <si>
     <t>BrainGVEX</t>
   </si>
   <si>
-    <t>methylation quantitative trait loci detection</t>
-  </si>
-  <si>
-    <t>FitBark</t>
-  </si>
-  <si>
-    <t>fasta</t>
+    <t>network analysis</t>
+  </si>
+  <si>
+    <t>frailty assessment</t>
+  </si>
+  <si>
+    <t>fastq</t>
   </si>
   <si>
     <t>BroadAstrom109</t>
   </si>
   <si>
-    <t>network analysis</t>
-  </si>
-  <si>
-    <t>frailty assessment</t>
-  </si>
-  <si>
-    <t>fastq</t>
+    <t>network driver detection</t>
+  </si>
+  <si>
+    <t>Genotyping</t>
+  </si>
+  <si>
+    <t>fig</t>
   </si>
   <si>
     <t>BroadiPSC</t>
   </si>
   <si>
-    <t>network driver detection</t>
-  </si>
-  <si>
-    <t>Genotyping</t>
-  </si>
-  <si>
-    <t>fig</t>
+    <t>outlier detection</t>
+  </si>
+  <si>
+    <t>HI-C</t>
+  </si>
+  <si>
+    <t>flagstat</t>
   </si>
   <si>
     <t>BroadMDMi</t>
   </si>
   <si>
-    <t>outlier detection</t>
-  </si>
-  <si>
-    <t>HI-C</t>
-  </si>
-  <si>
-    <t>flagstat</t>
+    <t>peak calling</t>
+  </si>
+  <si>
+    <t>HiChIPseq</t>
+  </si>
+  <si>
+    <t>gct</t>
+  </si>
+  <si>
+    <t>CD74-IHC</t>
+  </si>
+  <si>
+    <t>Polygenic Risk Scores</t>
+  </si>
+  <si>
+    <t>high content screen</t>
+  </si>
+  <si>
+    <t>gff3</t>
   </si>
   <si>
     <t>CHDWB</t>
   </si>
   <si>
-    <t>peak calling</t>
-  </si>
-  <si>
-    <t>HiChIPseq</t>
-  </si>
-  <si>
-    <t>gct</t>
-  </si>
-  <si>
-    <t>Polygenic Risk Scores</t>
-  </si>
-  <si>
-    <t>high content screen</t>
-  </si>
-  <si>
-    <t>gff3</t>
+    <t>principal component analysis</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>gtf</t>
+  </si>
+  <si>
+    <t>protein quantitative trait loci detection</t>
+  </si>
+  <si>
+    <t>HPLC-MSMS</t>
+  </si>
+  <si>
+    <t>gzip</t>
   </si>
   <si>
     <t>CMC-PEC</t>
   </si>
   <si>
-    <t>principal component analysis</t>
-  </si>
-  <si>
-    <t>HPLC</t>
-  </si>
-  <si>
-    <t>gtf</t>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>Illumina EPIC Array</t>
+  </si>
+  <si>
+    <t>hdf</t>
   </si>
   <si>
     <t>CMC_HBCC</t>
   </si>
   <si>
-    <t>protein quantitative trait loci detection</t>
-  </si>
-  <si>
-    <t>HPLC-MSMS</t>
-  </si>
-  <si>
-    <t>gzip</t>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>Immunocytochemistry</t>
+  </si>
+  <si>
+    <t>hic</t>
   </si>
   <si>
     <t>CNON</t>
   </si>
   <si>
-    <t>purity</t>
-  </si>
-  <si>
-    <t>Illumina EPIC Array</t>
-  </si>
-  <si>
-    <t>hdf</t>
+    <t>search engine output files</t>
+  </si>
+  <si>
+    <t>immunofluorescence</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>CUIMC2_Mult</t>
+  </si>
+  <si>
+    <t>Sequence alignment</t>
+  </si>
+  <si>
+    <t>immunohistochemistry</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
   </si>
   <si>
     <t>CUMC_Compounds_Microglia</t>
   </si>
   <si>
-    <t>quality control</t>
-  </si>
-  <si>
-    <t>Immunocytochemistry</t>
-  </si>
-  <si>
-    <t>hic</t>
+    <t>somatic mutation calling</t>
+  </si>
+  <si>
+    <t>in vivo bioluminescence</t>
+  </si>
+  <si>
+    <t>idat</t>
   </si>
   <si>
     <t>DAM Models_CU</t>
   </si>
   <si>
-    <t>search engine output files</t>
-  </si>
-  <si>
-    <t>immunofluorescence</t>
-  </si>
-  <si>
-    <t>html</t>
+    <t>statistical network reconstruction</t>
+  </si>
+  <si>
+    <t>ISOSeq</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
   <si>
     <t>DiCAD</t>
   </si>
   <si>
-    <t>Sequence alignment</t>
-  </si>
-  <si>
-    <t>immunohistochemistry</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
+    <t>structural variation detection</t>
+  </si>
+  <si>
+    <t>jumpingLibrary</t>
+  </si>
+  <si>
+    <t>jpg</t>
   </si>
   <si>
     <t>diseasePseudotime</t>
   </si>
   <si>
-    <t>somatic mutation calling</t>
-  </si>
-  <si>
-    <t>in vivo bioluminescence</t>
-  </si>
-  <si>
-    <t>idat</t>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>kinesthetic behavior</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>statistical network reconstruction</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
-  </si>
-  <si>
-    <t>idx</t>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>structural variation detection</t>
-  </si>
-  <si>
-    <t>jumpingLibrary</t>
-  </si>
-  <si>
-    <t>jpg</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t>kinesthetic behavior</t>
-  </si>
-  <si>
-    <t>json</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>Emory_Levey_300_CSF_FNIH</t>
+  </si>
+  <si>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
-  </si>
-  <si>
     <t>NPS-AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
-  </si>
-  <si>
     <t>OFMM</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
-  </si>
-  <si>
     <t>omicsADDS</t>
   </si>
   <si>
-    <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
     <t>Organoid_scRNAseq</t>
   </si>
   <si>
@@ -1687,6 +1699,9 @@
   </si>
   <si>
     <t>SY5Y_REST</t>
+  </si>
+  <si>
+    <t>T Cell_AD</t>
   </si>
   <si>
     <t>TASTPM</t>
@@ -29190,13 +29205,13 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29210,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29233,9 +29248,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="G2:G1000">
       <formula1>Sheet2!$G$2:$G$97</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$184</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="Q2:Q1000">
       <formula1>Sheet2!$Q$2:$Q$26</formula1>
     </dataValidation>
@@ -29250,6 +29262,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -30093,35 +30108,35 @@
         <v>246</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>255</v>
@@ -31334,6 +31349,31 @@
     <row r="184">
       <c r="I184" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="I185" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="I186" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="I187" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="I188" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="I189" s="7" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,9 +29210,9 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="566">
   <si>
     <t>Component</t>
   </si>
@@ -984,628 +984,631 @@
     <t>json</t>
   </si>
   <si>
+    <t>DivCo_HS</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
+  </si>
+  <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Macaque</t>
@@ -29205,34 +29208,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29254,6 +29257,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$190</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29262,9 +29268,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31376,6 +31379,11 @@
         <v>564</v>
       </c>
     </row>
+    <row r="190">
+      <c r="I190" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,33 +29205,33 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,9 +29210,9 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,9 +29205,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29215,24 +29215,24 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,29 +29210,29 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,23 +29210,23 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,8 +29210,8 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,8 +29225,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,17 +29205,17 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,9 +29205,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
@@ -29215,24 +29215,24 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,17 +29205,17 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,17 +29205,17 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,29 +29205,29 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,12 +29205,12 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29220,18 +29220,18 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,28 +29205,28 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,9 +29210,9 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,18 +29210,18 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,29 +29210,29 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,22 +29205,22 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
@@ -29220,18 +29220,18 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,22 +29205,22 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,23 +29205,23 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,29 +29205,29 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,23 +29215,23 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,18 +29215,18 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,33 +29205,33 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
@@ -29220,18 +29220,18 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,22 +29215,22 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,17 +29205,17 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29220,12 +29220,12 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,13 +29205,13 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29220,8 +29220,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,32 +29205,32 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,8 +29215,8 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,8 +29225,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,29 +29210,29 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,9 +29205,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29225,9 +29225,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,9 +29205,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29215,8 +29215,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,12 +29215,12 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,29 +29210,29 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,18 +29210,18 @@
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,7 +29205,7 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29220,7 +29220,7 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,13 +29205,13 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29220,14 +29220,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
+  <conditionalFormatting sqref="R1:R1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,22 +29205,22 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,29 +29205,29 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,9 +29205,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,29 +29205,29 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,13 +29205,13 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29220,14 +29220,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,18 +29205,18 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29225,13 +29225,13 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,33 +29205,33 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29215,22 +29215,22 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29225,14 +29225,14 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
@@ -29220,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29205,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -29210,18 +29210,18 @@
       <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,9 +29230,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
   <si>
     <t>Component</t>
   </si>
@@ -984,630 +984,633 @@
     <t>json</t>
   </si>
   <si>
+    <t>DivCo_HS</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
+  </si>
+  <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1777,6 +1780,9 @@
   </si>
   <si>
     <t>UPenn</t>
+  </si>
+  <si>
+    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29205,14 +29211,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29220,19 +29226,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29254,6 +29260,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$191</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29262,9 +29271,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31376,6 +31382,16 @@
         <v>564</v>
       </c>
     </row>
+    <row r="190">
+      <c r="I190" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="I191" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
   <si>
     <t>Component</t>
   </si>
@@ -984,7 +984,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>DivCo_HS</t>
+    <t>DukeAD_PTSD</t>
   </si>
   <si>
     <t>transcript quantification</t>
@@ -996,7 +996,7 @@
     <t>locs</t>
   </si>
   <si>
-    <t>DukeAD_PTSD</t>
+    <t>ELPSCRNA</t>
   </si>
   <si>
     <t>variancePartition</t>
@@ -1008,7 +1008,7 @@
     <t>maf</t>
   </si>
   <si>
-    <t>ELPSCRNA</t>
+    <t>Emory_ADRC</t>
   </si>
   <si>
     <t>Variant calling</t>
@@ -1020,7 +1020,7 @@
     <t>mat</t>
   </si>
   <si>
-    <t>Emory_ADRC</t>
+    <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
     <t>visualization</t>
@@ -1032,7 +1032,7 @@
     <t>md</t>
   </si>
   <si>
-    <t>Emory_Levey_300_CSF_FNIH</t>
+    <t>EmoryDrosophilaTau</t>
   </si>
   <si>
     <t>LC-SRM</t>
@@ -1041,7 +1041,7 @@
     <t>mov</t>
   </si>
   <si>
-    <t>EmoryDrosophilaTau</t>
+    <t>EpiGABA</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
@@ -1050,7 +1050,7 @@
     <t>mp4</t>
   </si>
   <si>
-    <t>EpiGABA</t>
+    <t>EpiMap</t>
   </si>
   <si>
     <t>lentiMPRA</t>
@@ -1059,7 +1059,7 @@
     <t>msf</t>
   </si>
   <si>
-    <t>EpiMap</t>
+    <t>eQTLmetaAnalysis</t>
   </si>
   <si>
     <t>LFP</t>
@@ -1068,7 +1068,7 @@
     <t>mtx</t>
   </si>
   <si>
-    <t>eQTLmetaAnalysis</t>
+    <t>FreshMicro</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
@@ -1077,7 +1077,7 @@
     <t>nirs</t>
   </si>
   <si>
-    <t>FreshMicro</t>
+    <t>HBI_scRNAseq</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
@@ -1086,7 +1086,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>HBI_scRNAseq</t>
+    <t>HBTRC</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
@@ -1095,7 +1095,7 @@
     <t>pdresult</t>
   </si>
   <si>
-    <t>HBTRC</t>
+    <t>HDAC1-cKOBrain</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
@@ -1104,7 +1104,7 @@
     <t>pdstudy</t>
   </si>
   <si>
-    <t>HDAC1-cKOBrain</t>
+    <t>HumanFC</t>
   </si>
   <si>
     <t>LTP</t>
@@ -1113,7 +1113,7 @@
     <t>pdview</t>
   </si>
   <si>
-    <t>HumanFC</t>
+    <t>IL10_APPmouse</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
@@ -1122,7 +1122,7 @@
     <t>plink</t>
   </si>
   <si>
-    <t>IL10_APPmouse</t>
+    <t>iNiAstshRNA</t>
   </si>
   <si>
     <t>MDMS-SL</t>
@@ -1131,7 +1131,7 @@
     <t>png</t>
   </si>
   <si>
-    <t>iNiAstshRNA</t>
+    <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
     <t>memory behavior</t>
@@ -1140,7 +1140,7 @@
     <t>powerpoint</t>
   </si>
   <si>
-    <t>IntegrativePathwayAnalysis</t>
+    <t>iPSC</t>
   </si>
   <si>
     <t>Metabolon</t>
@@ -1149,7 +1149,7 @@
     <t>Python script</t>
   </si>
   <si>
-    <t>iPSC</t>
+    <t>iPSC-HiC</t>
   </si>
   <si>
     <t>methylationArray</t>
@@ -1158,7 +1158,7 @@
     <t>pzfx</t>
   </si>
   <si>
-    <t>iPSC-HiC</t>
+    <t>iPSCAstrocytes</t>
   </si>
   <si>
     <t>MIB/MS</t>
@@ -1167,13 +1167,13 @@
     <t>R script</t>
   </si>
   <si>
-    <t>iPSCAstrocytes</t>
+    <t>iPSCMicroglia</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>iPSCMicroglia</t>
+    <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
     <t>mirnaArray</t>
@@ -1182,7 +1182,7 @@
     <t>RCC</t>
   </si>
   <si>
-    <t>ISB_Taner_CollagenDomain</t>
+    <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
     <t>mirnaSeq</t>
@@ -1191,7 +1191,7 @@
     <t>RData</t>
   </si>
   <si>
-    <t>ISB_Taner_Cxcl10</t>
+    <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
     <t>MRI</t>
@@ -1200,7 +1200,7 @@
     <t>recal</t>
   </si>
   <si>
-    <t>ISB_Taner_PTN_MDK</t>
+    <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
     <t>mRNAcounts</t>
@@ -1209,7 +1209,7 @@
     <t>RLF</t>
   </si>
   <si>
-    <t>ISB_Taner_sIL10r_sIL4r</t>
+    <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
     <t>mRNAseq</t>
@@ -1218,7 +1218,7 @@
     <t>rmd</t>
   </si>
   <si>
-    <t>ISB_Taner_TGFbeta</t>
+    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
     <t>MudPIT</t>
@@ -1227,7 +1227,7 @@
     <t>saf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
+    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
@@ -1236,7 +1236,7 @@
     <t>sam</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
+    <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
@@ -1245,7 +1245,7 @@
     <t>sav</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APP.PS1</t>
+    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
@@ -1254,7 +1254,7 @@
     <t>sdf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
+    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
     <t>novelty response behavior</t>
@@ -1263,7 +1263,7 @@
     <t>seg</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
+    <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
     <t>open field test</t>
@@ -1272,7 +1272,7 @@
     <t>Sentrix descriptor file</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_MicrobiomePilot</t>
+    <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
@@ -1281,7 +1281,7 @@
     <t>sf3</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_PrimaryScreen</t>
+    <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
@@ -1290,7 +1290,7 @@
     <t>sif</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_StrainValidation</t>
+    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
@@ -1299,7 +1299,7 @@
     <t>sqlite</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
+    <t>LBP</t>
   </si>
   <si>
     <t>photograph</t>
@@ -1308,7 +1308,7 @@
     <t>sra</t>
   </si>
   <si>
-    <t>LBP</t>
+    <t>LillyMicroglia</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
@@ -1317,7 +1317,7 @@
     <t>svg</t>
   </si>
   <si>
-    <t>LillyMicroglia</t>
+    <t>LLFS</t>
   </si>
   <si>
     <t>Positron Emission Tomography</t>
@@ -1326,7 +1326,7 @@
     <t>svs</t>
   </si>
   <si>
-    <t>LLFS</t>
+    <t>lncRNA Pilot</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -1335,7 +1335,7 @@
     <t>Synapse Table</t>
   </si>
   <si>
-    <t>lncRNA Pilot</t>
+    <t>MARS WISCONSIN</t>
   </si>
   <si>
     <t>questionnaire</t>
@@ -1344,7 +1344,7 @@
     <t>tab</t>
   </si>
   <si>
-    <t>MARS WISCONSIN</t>
+    <t>MayoeGWAS</t>
   </si>
   <si>
     <t>Rader Lipidomics</t>
@@ -1353,7 +1353,7 @@
     <t>tagAlign</t>
   </si>
   <si>
-    <t>MayoeGWAS</t>
+    <t>MayoHippocampus</t>
   </si>
   <si>
     <t>Real Time PCR</t>
@@ -1362,7 +1362,7 @@
     <t>tar</t>
   </si>
   <si>
-    <t>MayoHippocampus</t>
+    <t>MayoLOADGWAS</t>
   </si>
   <si>
     <t>Ribo-Seq</t>
@@ -1371,7 +1371,7 @@
     <t>tbi</t>
   </si>
   <si>
-    <t>MayoLOADGWAS</t>
+    <t>MayoPilotRNAseq</t>
   </si>
   <si>
     <t>rnaArray</t>
@@ -1380,7 +1380,7 @@
     <t>tif</t>
   </si>
   <si>
-    <t>MayoPilotRNAseq</t>
+    <t>MayoRNAseq</t>
   </si>
   <si>
     <t>rnaSeq</t>
@@ -1389,7 +1389,7 @@
     <t>tranches</t>
   </si>
   <si>
-    <t>MayoRNAseq</t>
+    <t>MC-BrAD</t>
   </si>
   <si>
     <t>rotarod performance test</t>
@@ -1398,7 +1398,7 @@
     <t>tsv</t>
   </si>
   <si>
-    <t>MC-BrAD</t>
+    <t>MC-CAA</t>
   </si>
   <si>
     <t>RPPA</t>
@@ -1407,7 +1407,7 @@
     <t>txt</t>
   </si>
   <si>
-    <t>MC-CAA</t>
+    <t>MC_snRNA</t>
   </si>
   <si>
     <t>RRBS</t>
@@ -1416,7 +1416,7 @@
     <t>vcf</t>
   </si>
   <si>
-    <t>MC_snRNA</t>
+    <t>mCITE-Seq</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
@@ -1425,7 +1425,7 @@
     <t>wiggle</t>
   </si>
   <si>
-    <t>mCITE-Seq</t>
+    <t>MCMPS</t>
   </si>
   <si>
     <t>Sanger sequencing</t>
@@ -1434,7 +1434,7 @@
     <t>xml</t>
   </si>
   <si>
-    <t>MCMPS</t>
+    <t>MEF2_Resilience</t>
   </si>
   <si>
     <t>scale</t>
@@ -1443,7 +1443,7 @@
     <t>yaml</t>
   </si>
   <si>
-    <t>MEF2_Resilience</t>
+    <t>MindPhenomeKB</t>
   </si>
   <si>
     <t>scATACSeq</t>
@@ -1452,165 +1452,162 @@
     <t>zip</t>
   </si>
   <si>
-    <t>MindPhenomeKB</t>
+    <t>miR155</t>
   </si>
   <si>
     <t>scCGIseq</t>
   </si>
   <si>
-    <t>miR155</t>
+    <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
     <t>scirnaSeq</t>
   </si>
   <si>
-    <t>MIT_ROSMAP_Multiomics</t>
+    <t>MOA-PAD</t>
   </si>
   <si>
     <t>scrnaSeq</t>
   </si>
   <si>
-    <t>MOA-PAD</t>
+    <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
     <t>scwholeGenomeSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_5XFAD</t>
+    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
     <t>SiMoA</t>
   </si>
   <si>
-    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
+    <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_KI</t>
+    <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
     <t>snpArray</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_Trem2</t>
+    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
     <t>snrnaSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
+    <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
-    <t>MODEL-AD_hAbeta_KI</t>
+    <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
     <t>STARRSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Harmonization</t>
+    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
     <t>TMT quantitation</t>
   </si>
   <si>
-    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
+    <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
     <t>TotalRNAseq</t>
   </si>
   <si>
-    <t>MODEL-AD_hTau_Trem2</t>
+    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
   </si>
   <si>
-    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
+    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
     <t>UC Davis GCTOF</t>
   </si>
   <si>
-    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
+    <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
-    <t>MODEL-AD_Rat_F344</t>
+    <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
-    <t>MODEL-AD_Trem2_R47H</t>
+    <t>MouseHAL</t>
   </si>
   <si>
     <t>UPLC-MSMS</t>
   </si>
   <si>
-    <t>MouseHAL</t>
+    <t>MRGWAS</t>
   </si>
   <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
-    <t>MRGWAS</t>
+    <t>MSBB</t>
   </si>
   <si>
     <t>von Frey test</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
     <t>westernBlot</t>
   </si>
   <si>
-    <t>MSBB_ArrayTissuePanel</t>
+    <t>MSDM</t>
   </si>
   <si>
     <t>wheel running</t>
   </si>
   <si>
-    <t>MSDM</t>
+    <t>MSMM</t>
   </si>
   <si>
     <t>whole-cell patch clamp</t>
   </si>
   <si>
-    <t>MSMM</t>
+    <t>MSSMiPSC</t>
   </si>
   <si>
     <t>wholeGenomeSeq</t>
   </si>
   <si>
-    <t>MSSMiPSC</t>
+    <t>mtDNA_AD</t>
   </si>
   <si>
     <t>Wishart Catecholamines</t>
   </si>
   <si>
-    <t>mtDNA_AD</t>
+    <t>NAPS</t>
   </si>
   <si>
     <t>Wishart High Value Metabolites</t>
   </si>
   <si>
-    <t>NAPS</t>
+    <t>NHP-Chimpanzee</t>
   </si>
   <si>
     <t>Zeno Electronic Walkway</t>
   </si>
   <si>
-    <t>NHP-Chimpanzee</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1780,9 +1777,6 @@
   </si>
   <si>
     <t>UPenn</t>
-  </si>
-  <si>
-    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29211,14 +29205,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29226,19 +29220,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29260,9 +29254,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$191</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29271,6 +29262,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31382,16 +31376,6 @@
         <v>564</v>
       </c>
     </row>
-    <row r="190">
-      <c r="I190" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="I191" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
   <si>
     <t>Component</t>
   </si>
@@ -984,630 +984,633 @@
     <t>json</t>
   </si>
   <si>
+    <t>DivCo_HS</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
+  </si>
+  <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1777,6 +1780,9 @@
   </si>
   <si>
     <t>UPenn</t>
+  </si>
+  <si>
+    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29205,34 +29211,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29254,6 +29260,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$191</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29262,9 +29271,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31376,6 +31382,16 @@
         <v>564</v>
       </c>
     </row>
+    <row r="190">
+      <c r="I190" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="I191" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
   <si>
     <t>Component</t>
   </si>
@@ -984,7 +984,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>DivCo_HS</t>
+    <t>DukeAD_PTSD</t>
   </si>
   <si>
     <t>transcript quantification</t>
@@ -996,7 +996,7 @@
     <t>locs</t>
   </si>
   <si>
-    <t>DukeAD_PTSD</t>
+    <t>ELPSCRNA</t>
   </si>
   <si>
     <t>variancePartition</t>
@@ -1008,7 +1008,7 @@
     <t>maf</t>
   </si>
   <si>
-    <t>ELPSCRNA</t>
+    <t>Emory_ADRC</t>
   </si>
   <si>
     <t>Variant calling</t>
@@ -1020,7 +1020,7 @@
     <t>mat</t>
   </si>
   <si>
-    <t>Emory_ADRC</t>
+    <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
     <t>visualization</t>
@@ -1032,7 +1032,7 @@
     <t>md</t>
   </si>
   <si>
-    <t>Emory_Levey_300_CSF_FNIH</t>
+    <t>EmoryDrosophilaTau</t>
   </si>
   <si>
     <t>LC-SRM</t>
@@ -1041,7 +1041,7 @@
     <t>mov</t>
   </si>
   <si>
-    <t>EmoryDrosophilaTau</t>
+    <t>EpiGABA</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
@@ -1050,7 +1050,7 @@
     <t>mp4</t>
   </si>
   <si>
-    <t>EpiGABA</t>
+    <t>EpiMap</t>
   </si>
   <si>
     <t>lentiMPRA</t>
@@ -1059,7 +1059,7 @@
     <t>msf</t>
   </si>
   <si>
-    <t>EpiMap</t>
+    <t>eQTLmetaAnalysis</t>
   </si>
   <si>
     <t>LFP</t>
@@ -1068,7 +1068,7 @@
     <t>mtx</t>
   </si>
   <si>
-    <t>eQTLmetaAnalysis</t>
+    <t>FreshMicro</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
@@ -1077,7 +1077,7 @@
     <t>nirs</t>
   </si>
   <si>
-    <t>FreshMicro</t>
+    <t>HBI_scRNAseq</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
@@ -1086,7 +1086,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>HBI_scRNAseq</t>
+    <t>HBTRC</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
@@ -1095,7 +1095,7 @@
     <t>pdresult</t>
   </si>
   <si>
-    <t>HBTRC</t>
+    <t>HDAC1-cKOBrain</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
@@ -1104,7 +1104,7 @@
     <t>pdstudy</t>
   </si>
   <si>
-    <t>HDAC1-cKOBrain</t>
+    <t>HumanFC</t>
   </si>
   <si>
     <t>LTP</t>
@@ -1113,7 +1113,7 @@
     <t>pdview</t>
   </si>
   <si>
-    <t>HumanFC</t>
+    <t>IL10_APPmouse</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
@@ -1122,7 +1122,7 @@
     <t>plink</t>
   </si>
   <si>
-    <t>IL10_APPmouse</t>
+    <t>iNiAstshRNA</t>
   </si>
   <si>
     <t>MDMS-SL</t>
@@ -1131,7 +1131,7 @@
     <t>png</t>
   </si>
   <si>
-    <t>iNiAstshRNA</t>
+    <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
     <t>memory behavior</t>
@@ -1140,7 +1140,7 @@
     <t>powerpoint</t>
   </si>
   <si>
-    <t>IntegrativePathwayAnalysis</t>
+    <t>iPSC</t>
   </si>
   <si>
     <t>Metabolon</t>
@@ -1149,7 +1149,7 @@
     <t>Python script</t>
   </si>
   <si>
-    <t>iPSC</t>
+    <t>iPSC-HiC</t>
   </si>
   <si>
     <t>methylationArray</t>
@@ -1158,7 +1158,7 @@
     <t>pzfx</t>
   </si>
   <si>
-    <t>iPSC-HiC</t>
+    <t>iPSCAstrocytes</t>
   </si>
   <si>
     <t>MIB/MS</t>
@@ -1167,13 +1167,13 @@
     <t>R script</t>
   </si>
   <si>
-    <t>iPSCAstrocytes</t>
+    <t>iPSCMicroglia</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>iPSCMicroglia</t>
+    <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
     <t>mirnaArray</t>
@@ -1182,7 +1182,7 @@
     <t>RCC</t>
   </si>
   <si>
-    <t>ISB_Taner_CollagenDomain</t>
+    <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
     <t>mirnaSeq</t>
@@ -1191,7 +1191,7 @@
     <t>RData</t>
   </si>
   <si>
-    <t>ISB_Taner_Cxcl10</t>
+    <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
     <t>MRI</t>
@@ -1200,7 +1200,7 @@
     <t>recal</t>
   </si>
   <si>
-    <t>ISB_Taner_PTN_MDK</t>
+    <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
     <t>mRNAcounts</t>
@@ -1209,7 +1209,7 @@
     <t>RLF</t>
   </si>
   <si>
-    <t>ISB_Taner_sIL10r_sIL4r</t>
+    <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
     <t>mRNAseq</t>
@@ -1218,7 +1218,7 @@
     <t>rmd</t>
   </si>
   <si>
-    <t>ISB_Taner_TGFbeta</t>
+    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
     <t>MudPIT</t>
@@ -1227,7 +1227,7 @@
     <t>saf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
+    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
@@ -1236,7 +1236,7 @@
     <t>sam</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
+    <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
@@ -1245,7 +1245,7 @@
     <t>sav</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APP.PS1</t>
+    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
@@ -1254,7 +1254,7 @@
     <t>sdf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
+    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
     <t>novelty response behavior</t>
@@ -1263,7 +1263,7 @@
     <t>seg</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
+    <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
     <t>open field test</t>
@@ -1272,7 +1272,7 @@
     <t>Sentrix descriptor file</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_MicrobiomePilot</t>
+    <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
@@ -1281,7 +1281,7 @@
     <t>sf3</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_PrimaryScreen</t>
+    <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
@@ -1290,7 +1290,7 @@
     <t>sif</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_StrainValidation</t>
+    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
@@ -1299,7 +1299,7 @@
     <t>sqlite</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
+    <t>LBP</t>
   </si>
   <si>
     <t>photograph</t>
@@ -1308,7 +1308,7 @@
     <t>sra</t>
   </si>
   <si>
-    <t>LBP</t>
+    <t>LillyMicroglia</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
@@ -1317,7 +1317,7 @@
     <t>svg</t>
   </si>
   <si>
-    <t>LillyMicroglia</t>
+    <t>LLFS</t>
   </si>
   <si>
     <t>Positron Emission Tomography</t>
@@ -1326,7 +1326,7 @@
     <t>svs</t>
   </si>
   <si>
-    <t>LLFS</t>
+    <t>lncRNA Pilot</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -1335,7 +1335,7 @@
     <t>Synapse Table</t>
   </si>
   <si>
-    <t>lncRNA Pilot</t>
+    <t>MARS WISCONSIN</t>
   </si>
   <si>
     <t>questionnaire</t>
@@ -1344,7 +1344,7 @@
     <t>tab</t>
   </si>
   <si>
-    <t>MARS WISCONSIN</t>
+    <t>MayoeGWAS</t>
   </si>
   <si>
     <t>Rader Lipidomics</t>
@@ -1353,7 +1353,7 @@
     <t>tagAlign</t>
   </si>
   <si>
-    <t>MayoeGWAS</t>
+    <t>MayoHippocampus</t>
   </si>
   <si>
     <t>Real Time PCR</t>
@@ -1362,7 +1362,7 @@
     <t>tar</t>
   </si>
   <si>
-    <t>MayoHippocampus</t>
+    <t>MayoLOADGWAS</t>
   </si>
   <si>
     <t>Ribo-Seq</t>
@@ -1371,7 +1371,7 @@
     <t>tbi</t>
   </si>
   <si>
-    <t>MayoLOADGWAS</t>
+    <t>MayoPilotRNAseq</t>
   </si>
   <si>
     <t>rnaArray</t>
@@ -1380,7 +1380,7 @@
     <t>tif</t>
   </si>
   <si>
-    <t>MayoPilotRNAseq</t>
+    <t>MayoRNAseq</t>
   </si>
   <si>
     <t>rnaSeq</t>
@@ -1389,7 +1389,7 @@
     <t>tranches</t>
   </si>
   <si>
-    <t>MayoRNAseq</t>
+    <t>MC-BrAD</t>
   </si>
   <si>
     <t>rotarod performance test</t>
@@ -1398,7 +1398,7 @@
     <t>tsv</t>
   </si>
   <si>
-    <t>MC-BrAD</t>
+    <t>MC-CAA</t>
   </si>
   <si>
     <t>RPPA</t>
@@ -1407,7 +1407,7 @@
     <t>txt</t>
   </si>
   <si>
-    <t>MC-CAA</t>
+    <t>MC_snRNA</t>
   </si>
   <si>
     <t>RRBS</t>
@@ -1416,7 +1416,7 @@
     <t>vcf</t>
   </si>
   <si>
-    <t>MC_snRNA</t>
+    <t>mCITE-Seq</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
@@ -1425,7 +1425,7 @@
     <t>wiggle</t>
   </si>
   <si>
-    <t>mCITE-Seq</t>
+    <t>MCMPS</t>
   </si>
   <si>
     <t>Sanger sequencing</t>
@@ -1434,7 +1434,7 @@
     <t>xml</t>
   </si>
   <si>
-    <t>MCMPS</t>
+    <t>MEF2_Resilience</t>
   </si>
   <si>
     <t>scale</t>
@@ -1443,7 +1443,7 @@
     <t>yaml</t>
   </si>
   <si>
-    <t>MEF2_Resilience</t>
+    <t>MindPhenomeKB</t>
   </si>
   <si>
     <t>scATACSeq</t>
@@ -1452,165 +1452,162 @@
     <t>zip</t>
   </si>
   <si>
-    <t>MindPhenomeKB</t>
+    <t>miR155</t>
   </si>
   <si>
     <t>scCGIseq</t>
   </si>
   <si>
-    <t>miR155</t>
+    <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
     <t>scirnaSeq</t>
   </si>
   <si>
-    <t>MIT_ROSMAP_Multiomics</t>
+    <t>MOA-PAD</t>
   </si>
   <si>
     <t>scrnaSeq</t>
   </si>
   <si>
-    <t>MOA-PAD</t>
+    <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
     <t>scwholeGenomeSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_5XFAD</t>
+    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
     <t>SiMoA</t>
   </si>
   <si>
-    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
+    <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_KI</t>
+    <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
     <t>snpArray</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_Trem2</t>
+    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
     <t>snrnaSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
+    <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
-    <t>MODEL-AD_hAbeta_KI</t>
+    <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
     <t>STARRSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Harmonization</t>
+    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
     <t>TMT quantitation</t>
   </si>
   <si>
-    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
+    <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
     <t>TotalRNAseq</t>
   </si>
   <si>
-    <t>MODEL-AD_hTau_Trem2</t>
+    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
   </si>
   <si>
-    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
+    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
     <t>UC Davis GCTOF</t>
   </si>
   <si>
-    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
+    <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
-    <t>MODEL-AD_Rat_F344</t>
+    <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
-    <t>MODEL-AD_Trem2_R47H</t>
+    <t>MouseHAL</t>
   </si>
   <si>
     <t>UPLC-MSMS</t>
   </si>
   <si>
-    <t>MouseHAL</t>
+    <t>MRGWAS</t>
   </si>
   <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
-    <t>MRGWAS</t>
+    <t>MSBB</t>
   </si>
   <si>
     <t>von Frey test</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
     <t>westernBlot</t>
   </si>
   <si>
-    <t>MSBB_ArrayTissuePanel</t>
+    <t>MSDM</t>
   </si>
   <si>
     <t>wheel running</t>
   </si>
   <si>
-    <t>MSDM</t>
+    <t>MSMM</t>
   </si>
   <si>
     <t>whole-cell patch clamp</t>
   </si>
   <si>
-    <t>MSMM</t>
+    <t>MSSMiPSC</t>
   </si>
   <si>
     <t>wholeGenomeSeq</t>
   </si>
   <si>
-    <t>MSSMiPSC</t>
+    <t>mtDNA_AD</t>
   </si>
   <si>
     <t>Wishart Catecholamines</t>
   </si>
   <si>
-    <t>mtDNA_AD</t>
+    <t>NAPS</t>
   </si>
   <si>
     <t>Wishart High Value Metabolites</t>
   </si>
   <si>
-    <t>NAPS</t>
+    <t>NHP-Chimpanzee</t>
   </si>
   <si>
     <t>Zeno Electronic Walkway</t>
   </si>
   <si>
-    <t>NHP-Chimpanzee</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1780,9 +1777,6 @@
   </si>
   <si>
     <t>UPenn</t>
-  </si>
-  <si>
-    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29211,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29260,9 +29254,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$191</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29271,6 +29262,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31382,16 +31376,6 @@
         <v>564</v>
       </c>
     </row>
-    <row r="190">
-      <c r="I190" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="I191" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
   <si>
     <t>Component</t>
   </si>
@@ -984,630 +984,633 @@
     <t>json</t>
   </si>
   <si>
+    <t>DivCo_HS</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
+  </si>
+  <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1777,6 +1780,9 @@
   </si>
   <si>
     <t>UPenn</t>
+  </si>
+  <si>
+    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29205,34 +29211,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29254,6 +29260,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$191</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29262,9 +29271,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31376,6 +31382,16 @@
         <v>564</v>
       </c>
     </row>
+    <row r="190">
+      <c r="I190" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="I191" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
   <si>
     <t>Component</t>
   </si>
@@ -984,7 +984,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>DivCo_HS</t>
+    <t>DukeAD_PTSD</t>
   </si>
   <si>
     <t>transcript quantification</t>
@@ -996,7 +996,7 @@
     <t>locs</t>
   </si>
   <si>
-    <t>DukeAD_PTSD</t>
+    <t>ELPSCRNA</t>
   </si>
   <si>
     <t>variancePartition</t>
@@ -1008,7 +1008,7 @@
     <t>maf</t>
   </si>
   <si>
-    <t>ELPSCRNA</t>
+    <t>Emory_ADRC</t>
   </si>
   <si>
     <t>Variant calling</t>
@@ -1020,7 +1020,7 @@
     <t>mat</t>
   </si>
   <si>
-    <t>Emory_ADRC</t>
+    <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
     <t>visualization</t>
@@ -1032,7 +1032,7 @@
     <t>md</t>
   </si>
   <si>
-    <t>Emory_Levey_300_CSF_FNIH</t>
+    <t>EmoryDrosophilaTau</t>
   </si>
   <si>
     <t>LC-SRM</t>
@@ -1041,7 +1041,7 @@
     <t>mov</t>
   </si>
   <si>
-    <t>EmoryDrosophilaTau</t>
+    <t>EpiGABA</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
@@ -1050,7 +1050,7 @@
     <t>mp4</t>
   </si>
   <si>
-    <t>EpiGABA</t>
+    <t>EpiMap</t>
   </si>
   <si>
     <t>lentiMPRA</t>
@@ -1059,7 +1059,7 @@
     <t>msf</t>
   </si>
   <si>
-    <t>EpiMap</t>
+    <t>eQTLmetaAnalysis</t>
   </si>
   <si>
     <t>LFP</t>
@@ -1068,7 +1068,7 @@
     <t>mtx</t>
   </si>
   <si>
-    <t>eQTLmetaAnalysis</t>
+    <t>FreshMicro</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
@@ -1077,7 +1077,7 @@
     <t>nirs</t>
   </si>
   <si>
-    <t>FreshMicro</t>
+    <t>HBI_scRNAseq</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
@@ -1086,7 +1086,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>HBI_scRNAseq</t>
+    <t>HBTRC</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
@@ -1095,7 +1095,7 @@
     <t>pdresult</t>
   </si>
   <si>
-    <t>HBTRC</t>
+    <t>HDAC1-cKOBrain</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
@@ -1104,7 +1104,7 @@
     <t>pdstudy</t>
   </si>
   <si>
-    <t>HDAC1-cKOBrain</t>
+    <t>HumanFC</t>
   </si>
   <si>
     <t>LTP</t>
@@ -1113,7 +1113,7 @@
     <t>pdview</t>
   </si>
   <si>
-    <t>HumanFC</t>
+    <t>IL10_APPmouse</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
@@ -1122,7 +1122,7 @@
     <t>plink</t>
   </si>
   <si>
-    <t>IL10_APPmouse</t>
+    <t>iNiAstshRNA</t>
   </si>
   <si>
     <t>MDMS-SL</t>
@@ -1131,7 +1131,7 @@
     <t>png</t>
   </si>
   <si>
-    <t>iNiAstshRNA</t>
+    <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
     <t>memory behavior</t>
@@ -1140,7 +1140,7 @@
     <t>powerpoint</t>
   </si>
   <si>
-    <t>IntegrativePathwayAnalysis</t>
+    <t>iPSC</t>
   </si>
   <si>
     <t>Metabolon</t>
@@ -1149,7 +1149,7 @@
     <t>Python script</t>
   </si>
   <si>
-    <t>iPSC</t>
+    <t>iPSC-HiC</t>
   </si>
   <si>
     <t>methylationArray</t>
@@ -1158,7 +1158,7 @@
     <t>pzfx</t>
   </si>
   <si>
-    <t>iPSC-HiC</t>
+    <t>iPSCAstrocytes</t>
   </si>
   <si>
     <t>MIB/MS</t>
@@ -1167,13 +1167,13 @@
     <t>R script</t>
   </si>
   <si>
-    <t>iPSCAstrocytes</t>
+    <t>iPSCMicroglia</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>iPSCMicroglia</t>
+    <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
     <t>mirnaArray</t>
@@ -1182,7 +1182,7 @@
     <t>RCC</t>
   </si>
   <si>
-    <t>ISB_Taner_CollagenDomain</t>
+    <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
     <t>mirnaSeq</t>
@@ -1191,7 +1191,7 @@
     <t>RData</t>
   </si>
   <si>
-    <t>ISB_Taner_Cxcl10</t>
+    <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
     <t>MRI</t>
@@ -1200,7 +1200,7 @@
     <t>recal</t>
   </si>
   <si>
-    <t>ISB_Taner_PTN_MDK</t>
+    <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
     <t>mRNAcounts</t>
@@ -1209,7 +1209,7 @@
     <t>RLF</t>
   </si>
   <si>
-    <t>ISB_Taner_sIL10r_sIL4r</t>
+    <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
     <t>mRNAseq</t>
@@ -1218,7 +1218,7 @@
     <t>rmd</t>
   </si>
   <si>
-    <t>ISB_Taner_TGFbeta</t>
+    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
     <t>MudPIT</t>
@@ -1227,7 +1227,7 @@
     <t>saf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
+    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
@@ -1236,7 +1236,7 @@
     <t>sam</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
+    <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
@@ -1245,7 +1245,7 @@
     <t>sav</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_APP.PS1</t>
+    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
@@ -1254,7 +1254,7 @@
     <t>sdf</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
+    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
     <t>novelty response behavior</t>
@@ -1263,7 +1263,7 @@
     <t>seg</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
+    <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
     <t>open field test</t>
@@ -1272,7 +1272,7 @@
     <t>Sentrix descriptor file</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_MicrobiomePilot</t>
+    <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
@@ -1281,7 +1281,7 @@
     <t>sf3</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_PrimaryScreen</t>
+    <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
@@ -1290,7 +1290,7 @@
     <t>sif</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_StrainValidation</t>
+    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
@@ -1299,7 +1299,7 @@
     <t>sqlite</t>
   </si>
   <si>
-    <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
+    <t>LBP</t>
   </si>
   <si>
     <t>photograph</t>
@@ -1308,7 +1308,7 @@
     <t>sra</t>
   </si>
   <si>
-    <t>LBP</t>
+    <t>LillyMicroglia</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
@@ -1317,7 +1317,7 @@
     <t>svg</t>
   </si>
   <si>
-    <t>LillyMicroglia</t>
+    <t>LLFS</t>
   </si>
   <si>
     <t>Positron Emission Tomography</t>
@@ -1326,7 +1326,7 @@
     <t>svs</t>
   </si>
   <si>
-    <t>LLFS</t>
+    <t>lncRNA Pilot</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -1335,7 +1335,7 @@
     <t>Synapse Table</t>
   </si>
   <si>
-    <t>lncRNA Pilot</t>
+    <t>MARS WISCONSIN</t>
   </si>
   <si>
     <t>questionnaire</t>
@@ -1344,7 +1344,7 @@
     <t>tab</t>
   </si>
   <si>
-    <t>MARS WISCONSIN</t>
+    <t>MayoeGWAS</t>
   </si>
   <si>
     <t>Rader Lipidomics</t>
@@ -1353,7 +1353,7 @@
     <t>tagAlign</t>
   </si>
   <si>
-    <t>MayoeGWAS</t>
+    <t>MayoHippocampus</t>
   </si>
   <si>
     <t>Real Time PCR</t>
@@ -1362,7 +1362,7 @@
     <t>tar</t>
   </si>
   <si>
-    <t>MayoHippocampus</t>
+    <t>MayoLOADGWAS</t>
   </si>
   <si>
     <t>Ribo-Seq</t>
@@ -1371,7 +1371,7 @@
     <t>tbi</t>
   </si>
   <si>
-    <t>MayoLOADGWAS</t>
+    <t>MayoPilotRNAseq</t>
   </si>
   <si>
     <t>rnaArray</t>
@@ -1380,7 +1380,7 @@
     <t>tif</t>
   </si>
   <si>
-    <t>MayoPilotRNAseq</t>
+    <t>MayoRNAseq</t>
   </si>
   <si>
     <t>rnaSeq</t>
@@ -1389,7 +1389,7 @@
     <t>tranches</t>
   </si>
   <si>
-    <t>MayoRNAseq</t>
+    <t>MC-BrAD</t>
   </si>
   <si>
     <t>rotarod performance test</t>
@@ -1398,7 +1398,7 @@
     <t>tsv</t>
   </si>
   <si>
-    <t>MC-BrAD</t>
+    <t>MC-CAA</t>
   </si>
   <si>
     <t>RPPA</t>
@@ -1407,7 +1407,7 @@
     <t>txt</t>
   </si>
   <si>
-    <t>MC-CAA</t>
+    <t>MC_snRNA</t>
   </si>
   <si>
     <t>RRBS</t>
@@ -1416,7 +1416,7 @@
     <t>vcf</t>
   </si>
   <si>
-    <t>MC_snRNA</t>
+    <t>mCITE-Seq</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
@@ -1425,7 +1425,7 @@
     <t>wiggle</t>
   </si>
   <si>
-    <t>mCITE-Seq</t>
+    <t>MCMPS</t>
   </si>
   <si>
     <t>Sanger sequencing</t>
@@ -1434,7 +1434,7 @@
     <t>xml</t>
   </si>
   <si>
-    <t>MCMPS</t>
+    <t>MEF2_Resilience</t>
   </si>
   <si>
     <t>scale</t>
@@ -1443,7 +1443,7 @@
     <t>yaml</t>
   </si>
   <si>
-    <t>MEF2_Resilience</t>
+    <t>MindPhenomeKB</t>
   </si>
   <si>
     <t>scATACSeq</t>
@@ -1452,165 +1452,162 @@
     <t>zip</t>
   </si>
   <si>
-    <t>MindPhenomeKB</t>
+    <t>miR155</t>
   </si>
   <si>
     <t>scCGIseq</t>
   </si>
   <si>
-    <t>miR155</t>
+    <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
     <t>scirnaSeq</t>
   </si>
   <si>
-    <t>MIT_ROSMAP_Multiomics</t>
+    <t>MOA-PAD</t>
   </si>
   <si>
     <t>scrnaSeq</t>
   </si>
   <si>
-    <t>MOA-PAD</t>
+    <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
     <t>scwholeGenomeSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_5XFAD</t>
+    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
     <t>SiMoA</t>
   </si>
   <si>
-    <t>MODEL-AD_Abca7_APOE4_Trem2</t>
+    <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
     <t>snATACSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_KI</t>
+    <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
     <t>snpArray</t>
   </si>
   <si>
-    <t>MODEL-AD_APOE4_Trem2</t>
+    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
     <t>snrnaSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
+    <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
     <t>spontaneous alternation</t>
   </si>
   <si>
-    <t>MODEL-AD_hAbeta_KI</t>
+    <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
     <t>STARRSeq</t>
   </si>
   <si>
-    <t>MODEL-AD_Harmonization</t>
+    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
     <t>TMT quantitation</t>
   </si>
   <si>
-    <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
+    <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
     <t>TotalRNAseq</t>
   </si>
   <si>
-    <t>MODEL-AD_hTau_Trem2</t>
+    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
   </si>
   <si>
-    <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
+    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
     <t>UC Davis GCTOF</t>
   </si>
   <si>
-    <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
+    <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
-    <t>MODEL-AD_Rat_F344</t>
+    <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
-    <t>MODEL-AD_Trem2_R47H</t>
+    <t>MouseHAL</t>
   </si>
   <si>
     <t>UPLC-MSMS</t>
   </si>
   <si>
-    <t>MouseHAL</t>
+    <t>MRGWAS</t>
   </si>
   <si>
     <t>Vernier Caliper</t>
   </si>
   <si>
-    <t>MRGWAS</t>
+    <t>MSBB</t>
   </si>
   <si>
     <t>von Frey test</t>
   </si>
   <si>
-    <t>MSBB</t>
+    <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
     <t>westernBlot</t>
   </si>
   <si>
-    <t>MSBB_ArrayTissuePanel</t>
+    <t>MSDM</t>
   </si>
   <si>
     <t>wheel running</t>
   </si>
   <si>
-    <t>MSDM</t>
+    <t>MSMM</t>
   </si>
   <si>
     <t>whole-cell patch clamp</t>
   </si>
   <si>
-    <t>MSMM</t>
+    <t>MSSMiPSC</t>
   </si>
   <si>
     <t>wholeGenomeSeq</t>
   </si>
   <si>
-    <t>MSSMiPSC</t>
+    <t>mtDNA_AD</t>
   </si>
   <si>
     <t>Wishart Catecholamines</t>
   </si>
   <si>
-    <t>mtDNA_AD</t>
+    <t>NAPS</t>
   </si>
   <si>
     <t>Wishart High Value Metabolites</t>
   </si>
   <si>
-    <t>NAPS</t>
+    <t>NHP-Chimpanzee</t>
   </si>
   <si>
     <t>Zeno Electronic Walkway</t>
   </si>
   <si>
-    <t>NHP-Chimpanzee</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1780,9 +1777,6 @@
   </si>
   <si>
     <t>UPenn</t>
-  </si>
-  <si>
-    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29211,34 +29205,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$K1 = "metadata"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29260,9 +29254,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$191</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29271,6 +29262,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31382,16 +31376,6 @@
         <v>564</v>
       </c>
     </row>
-    <row r="190">
-      <c r="I190" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="I191" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
   <si>
     <t>Component</t>
   </si>
@@ -984,630 +984,633 @@
     <t>json</t>
   </si>
   <si>
+    <t>DivCo_HS</t>
+  </si>
+  <si>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
+  </si>
+  <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>NAPS</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
   </si>
   <si>
-    <t>Zeno Electronic Walkway</t>
-  </si>
-  <si>
     <t>NHP-Macaque</t>
   </si>
   <si>
@@ -1777,6 +1780,9 @@
   </si>
   <si>
     <t>UPenn</t>
+  </si>
+  <si>
+    <t>Virus_Resilience_Organoids</t>
   </si>
   <si>
     <t>VirusResilience_Banner</t>
@@ -29205,14 +29211,14 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$K1 = "metadata"</formula>
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29220,19 +29226,19 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -29254,6 +29260,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$191</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
     </dataValidation>
@@ -29262,9 +29271,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="L2:L1000">
       <formula1>Sheet2!$L$2:$L$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$189</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$9</formula1>
@@ -31376,6 +31382,16 @@
         <v>564</v>
       </c>
     </row>
+    <row r="190">
+      <c r="I190" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="I191" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -1782,9 +1782,6 @@
     <t>UPenn</t>
   </si>
   <si>
-    <t>Virus_Resilience_Organoids</t>
-  </si>
-  <si>
     <t>VirusResilience_Banner</t>
   </si>
   <si>
@@ -1795,6 +1792,9 @@
   </si>
   <si>
     <t>VirusResilience_Mayo.MSBB.ROSMAP</t>
+  </si>
+  <si>
+    <t>VirusResilience_Organoids</t>
   </si>
   <si>
     <t>VMC</t>
@@ -29211,34 +29211,34 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$K1 = "experimentalData"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$K1 = "metadata"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="568">
   <si>
     <t>Component</t>
   </si>
@@ -603,282 +603,285 @@
     <t>Synodos</t>
   </si>
   <si>
+    <t>ADMCLongitudinalADNIMetabolon</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>dose response study</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CITESeq</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
     <t>Aging-PheWAS</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>dose response study</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CITESeq</t>
-  </si>
-  <si>
-    <t>bsc</t>
+    <t>Pharmacokinetic Study</t>
+  </si>
+  <si>
+    <t>Enrichment analysis</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>contextual conditioning behavior</t>
+  </si>
+  <si>
+    <t>cel</t>
   </si>
   <si>
     <t>AGMP_ANIMAL_MODELS</t>
   </si>
   <si>
-    <t>Pharmacokinetic Study</t>
-  </si>
-  <si>
-    <t>Enrichment analysis</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>contextual conditioning behavior</t>
-  </si>
-  <si>
-    <t>cel</t>
+    <t>pharmacology</t>
+  </si>
+  <si>
+    <t>EWAS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CUT&amp;Tag</t>
+  </si>
+  <si>
+    <t>chp</t>
   </si>
   <si>
     <t>AGMP_TULSA_1000_LIBR</t>
   </si>
   <si>
-    <t>pharmacology</t>
-  </si>
-  <si>
-    <t>EWAS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CUT&amp;Tag</t>
-  </si>
-  <si>
-    <t>chp</t>
+    <t>proteomics</t>
+  </si>
+  <si>
+    <t>expression quantitative trait loci detection</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>cram</t>
   </si>
   <si>
     <t>AMP-AD_DiverseCohorts</t>
   </si>
   <si>
-    <t>proteomics</t>
-  </si>
-  <si>
-    <t>expression quantitative trait loci detection</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>cram</t>
+    <t>surveyData</t>
+  </si>
+  <si>
+    <t>Gene expression comparison</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DNA optical mapping</t>
+  </si>
+  <si>
+    <t>csv</t>
   </si>
   <si>
     <t>APOE-TR</t>
   </si>
   <si>
-    <t>surveyData</t>
-  </si>
-  <si>
-    <t>Gene expression comparison</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DNA optical mapping</t>
-  </si>
-  <si>
-    <t>csv</t>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Genome-Wide Association</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>electrochemiluminescence</t>
+  </si>
+  <si>
+    <t>czi</t>
   </si>
   <si>
     <t>APOE4_Myelination</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Genome-Wide Association</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>electrochemiluminescence</t>
-  </si>
-  <si>
-    <t>czi</t>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>genome-wide pleiotropy</t>
+  </si>
+  <si>
+    <t>mitochondrial</t>
+  </si>
+  <si>
+    <t>elevated plus maze test</t>
+  </si>
+  <si>
+    <t>dat</t>
   </si>
   <si>
     <t>APOEPSC</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>genome-wide pleiotropy</t>
-  </si>
-  <si>
-    <t>mitochondrial</t>
-  </si>
-  <si>
-    <t>elevated plus maze test</t>
-  </si>
-  <si>
-    <t>dat</t>
+    <t>genotype imputation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>elevated T maze apparatus method</t>
+  </si>
+  <si>
+    <t>DICOM</t>
   </si>
   <si>
     <t>Ast10_Communication</t>
   </si>
   <si>
-    <t>genotype imputation</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>elevated T maze apparatus method</t>
-  </si>
-  <si>
-    <t>DICOM</t>
+    <t>genotypeAncestry</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>doc</t>
   </si>
   <si>
     <t>Banner</t>
   </si>
   <si>
-    <t>genotypeAncestry</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>doc</t>
+    <t>hidden confounder detection</t>
+  </si>
+  <si>
+    <t>errBisulfiteSeq</t>
+  </si>
+  <si>
+    <t>dup</t>
   </si>
   <si>
     <t>BCM-DMAS</t>
   </si>
   <si>
-    <t>hidden confounder detection</t>
-  </si>
-  <si>
-    <t>errBisulfiteSeq</t>
-  </si>
-  <si>
-    <t>dup</t>
+    <t>manifold learning</t>
+  </si>
+  <si>
+    <t>exomeSeq</t>
+  </si>
+  <si>
+    <t>excel</t>
   </si>
   <si>
     <t>BipSeq</t>
   </si>
   <si>
-    <t>manifold learning</t>
-  </si>
-  <si>
-    <t>exomeSeq</t>
-  </si>
-  <si>
-    <t>excel</t>
+    <t>Mendelian randomization analysis</t>
+  </si>
+  <si>
+    <t>FIA-MSMS</t>
+  </si>
+  <si>
+    <t>fam</t>
   </si>
   <si>
     <t>BLSA</t>
   </si>
   <si>
-    <t>Mendelian randomization analysis</t>
-  </si>
-  <si>
-    <t>FIA-MSMS</t>
-  </si>
-  <si>
-    <t>fam</t>
+    <t>methylation quantitative trait loci detection</t>
+  </si>
+  <si>
+    <t>FitBark</t>
+  </si>
+  <si>
+    <t>fasta</t>
   </si>
   <si>
     <t>BPSD_AD_AnimalStudy_NU</t>
   </si>
   <si>
-    <t>methylation quantitative trait loci detection</t>
-  </si>
-  <si>
-    <t>FitBark</t>
-  </si>
-  <si>
-    <t>fasta</t>
+    <t>network analysis</t>
+  </si>
+  <si>
+    <t>frailty assessment</t>
+  </si>
+  <si>
+    <t>fastq</t>
   </si>
   <si>
     <t>BrainGVEX</t>
   </si>
   <si>
-    <t>network analysis</t>
-  </si>
-  <si>
-    <t>frailty assessment</t>
-  </si>
-  <si>
-    <t>fastq</t>
+    <t>network driver detection</t>
+  </si>
+  <si>
+    <t>Genotyping</t>
+  </si>
+  <si>
+    <t>fig</t>
   </si>
   <si>
     <t>BroadAstrom109</t>
   </si>
   <si>
-    <t>network driver detection</t>
-  </si>
-  <si>
-    <t>Genotyping</t>
-  </si>
-  <si>
-    <t>fig</t>
+    <t>outlier detection</t>
+  </si>
+  <si>
+    <t>HI-C</t>
+  </si>
+  <si>
+    <t>flagstat</t>
   </si>
   <si>
     <t>BroadiPSC</t>
   </si>
   <si>
-    <t>outlier detection</t>
-  </si>
-  <si>
-    <t>HI-C</t>
-  </si>
-  <si>
-    <t>flagstat</t>
+    <t>peak calling</t>
+  </si>
+  <si>
+    <t>HiChIPseq</t>
+  </si>
+  <si>
+    <t>gct</t>
   </si>
   <si>
     <t>BroadMDMi</t>
   </si>
   <si>
-    <t>peak calling</t>
-  </si>
-  <si>
-    <t>HiChIPseq</t>
-  </si>
-  <si>
-    <t>gct</t>
+    <t>Polygenic Risk Scores</t>
+  </si>
+  <si>
+    <t>high content screen</t>
+  </si>
+  <si>
+    <t>gff3</t>
   </si>
   <si>
     <t>CD74-IHC</t>
   </si>
   <si>
-    <t>Polygenic Risk Scores</t>
-  </si>
-  <si>
-    <t>high content screen</t>
-  </si>
-  <si>
-    <t>gff3</t>
+    <t>principal component analysis</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>gtf</t>
   </si>
   <si>
     <t>CHDWB</t>
   </si>
   <si>
-    <t>principal component analysis</t>
-  </si>
-  <si>
-    <t>HPLC</t>
-  </si>
-  <si>
-    <t>gtf</t>
-  </si>
-  <si>
     <t>protein quantitative trait loci detection</t>
   </si>
   <si>
@@ -888,724 +891,724 @@
     <t>gzip</t>
   </si>
   <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>Illumina EPIC Array</t>
+  </si>
+  <si>
+    <t>hdf</t>
+  </si>
+  <si>
     <t>CMC-PEC</t>
   </si>
   <si>
-    <t>purity</t>
-  </si>
-  <si>
-    <t>Illumina EPIC Array</t>
-  </si>
-  <si>
-    <t>hdf</t>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>Immunocytochemistry</t>
+  </si>
+  <si>
+    <t>hic</t>
   </si>
   <si>
     <t>CMC_HBCC</t>
   </si>
   <si>
-    <t>quality control</t>
-  </si>
-  <si>
-    <t>Immunocytochemistry</t>
-  </si>
-  <si>
-    <t>hic</t>
+    <t>search engine output files</t>
+  </si>
+  <si>
+    <t>immunofluorescence</t>
+  </si>
+  <si>
+    <t>html</t>
   </si>
   <si>
     <t>CNON</t>
   </si>
   <si>
-    <t>search engine output files</t>
-  </si>
-  <si>
-    <t>immunofluorescence</t>
-  </si>
-  <si>
-    <t>html</t>
+    <t>Sequence alignment</t>
+  </si>
+  <si>
+    <t>immunohistochemistry</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
   </si>
   <si>
     <t>CUIMC2_Mult</t>
   </si>
   <si>
-    <t>Sequence alignment</t>
-  </si>
-  <si>
-    <t>immunohistochemistry</t>
-  </si>
-  <si>
-    <t>hyperlink</t>
+    <t>somatic mutation calling</t>
+  </si>
+  <si>
+    <t>in vivo bioluminescence</t>
+  </si>
+  <si>
+    <t>idat</t>
   </si>
   <si>
     <t>CUMC_Compounds_Microglia</t>
   </si>
   <si>
-    <t>somatic mutation calling</t>
-  </si>
-  <si>
-    <t>in vivo bioluminescence</t>
-  </si>
-  <si>
-    <t>idat</t>
+    <t>statistical network reconstruction</t>
+  </si>
+  <si>
+    <t>ISOSeq</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
   <si>
     <t>DAM Models_CU</t>
   </si>
   <si>
-    <t>statistical network reconstruction</t>
-  </si>
-  <si>
-    <t>ISOSeq</t>
-  </si>
-  <si>
-    <t>idx</t>
+    <t>structural variation detection</t>
+  </si>
+  <si>
+    <t>jumpingLibrary</t>
+  </si>
+  <si>
+    <t>jpg</t>
   </si>
   <si>
     <t>DiCAD</t>
   </si>
   <si>
-    <t>structural variation detection</t>
-  </si>
-  <si>
-    <t>jumpingLibrary</t>
-  </si>
-  <si>
-    <t>jpg</t>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>kinesthetic behavior</t>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>diseasePseudotime</t>
   </si>
   <si>
-    <t>Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t>kinesthetic behavior</t>
-  </si>
-  <si>
-    <t>json</t>
+    <t>transcript quantification</t>
+  </si>
+  <si>
+    <t>label free mass spectrometry</t>
+  </si>
+  <si>
+    <t>locs</t>
   </si>
   <si>
     <t>DivCo_HS</t>
   </si>
   <si>
-    <t>transcript quantification</t>
-  </si>
-  <si>
-    <t>label free mass spectrometry</t>
-  </si>
-  <si>
-    <t>locs</t>
+    <t>variancePartition</t>
+  </si>
+  <si>
+    <t>Laser Speckle Imaging</t>
+  </si>
+  <si>
+    <t>maf</t>
   </si>
   <si>
     <t>DukeAD_PTSD</t>
   </si>
   <si>
-    <t>variancePartition</t>
-  </si>
-  <si>
-    <t>Laser Speckle Imaging</t>
-  </si>
-  <si>
-    <t>maf</t>
+    <t>Variant calling</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>mat</t>
   </si>
   <si>
     <t>ELPSCRNA</t>
   </si>
   <si>
-    <t>Variant calling</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>mat</t>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>LC-MSMS</t>
+  </si>
+  <si>
+    <t>md</t>
   </si>
   <si>
     <t>Emory_ADRC</t>
   </si>
   <si>
-    <t>visualization</t>
-  </si>
-  <si>
-    <t>LC-MSMS</t>
-  </si>
-  <si>
-    <t>md</t>
+    <t>LC-SRM</t>
+  </si>
+  <si>
+    <t>mov</t>
   </si>
   <si>
     <t>Emory_Levey_300_CSF_FNIH</t>
   </si>
   <si>
-    <t>LC-SRM</t>
-  </si>
-  <si>
-    <t>mov</t>
+    <t>Leiden Oxylipins</t>
+  </si>
+  <si>
+    <t>mp4</t>
   </si>
   <si>
     <t>EmoryDrosophilaTau</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
-  </si>
-  <si>
-    <t>mp4</t>
+    <t>lentiMPRA</t>
+  </si>
+  <si>
+    <t>msf</t>
   </si>
   <si>
     <t>EpiGABA</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
-  </si>
-  <si>
-    <t>msf</t>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>mtx</t>
   </si>
   <si>
     <t>EpiMap</t>
   </si>
   <si>
-    <t>LFP</t>
-  </si>
-  <si>
-    <t>mtx</t>
+    <t>liquid chromatography-electrochemical detection</t>
+  </si>
+  <si>
+    <t>nirs</t>
   </si>
   <si>
     <t>eQTLmetaAnalysis</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
-  </si>
-  <si>
-    <t>nirs</t>
+    <t>lncrnaSeq</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
   <si>
     <t>FreshMicro</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>locomotor activation behavior</t>
+  </si>
+  <si>
+    <t>pdresult</t>
   </si>
   <si>
     <t>HBI_scRNAseq</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
-  </si>
-  <si>
-    <t>pdresult</t>
+    <t>long-read rnaSeq</t>
+  </si>
+  <si>
+    <t>pdstudy</t>
   </si>
   <si>
     <t>HBTRC</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
-  </si>
-  <si>
-    <t>pdstudy</t>
+    <t>LTP</t>
+  </si>
+  <si>
+    <t>pdview</t>
   </si>
   <si>
     <t>HDAC1-cKOBrain</t>
   </si>
   <si>
-    <t>LTP</t>
-  </si>
-  <si>
-    <t>pdview</t>
+    <t>m6A-rnaSeq</t>
+  </si>
+  <si>
+    <t>plink</t>
   </si>
   <si>
     <t>HumanFC</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
-  </si>
-  <si>
-    <t>plink</t>
+    <t>MDMS-SL</t>
+  </si>
+  <si>
+    <t>png</t>
   </si>
   <si>
     <t>IL10_APPmouse</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
-  </si>
-  <si>
-    <t>png</t>
+    <t>memory behavior</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
   </si>
   <si>
     <t>iNiAstshRNA</t>
   </si>
   <si>
-    <t>memory behavior</t>
-  </si>
-  <si>
-    <t>powerpoint</t>
+    <t>Metabolon</t>
+  </si>
+  <si>
+    <t>Python script</t>
   </si>
   <si>
     <t>IntegrativePathwayAnalysis</t>
   </si>
   <si>
-    <t>Metabolon</t>
-  </si>
-  <si>
-    <t>Python script</t>
+    <t>methylationArray</t>
+  </si>
+  <si>
+    <t>pzfx</t>
   </si>
   <si>
     <t>iPSC</t>
   </si>
   <si>
-    <t>methylationArray</t>
-  </si>
-  <si>
-    <t>pzfx</t>
+    <t>MIB/MS</t>
+  </si>
+  <si>
+    <t>R script</t>
   </si>
   <si>
     <t>iPSC-HiC</t>
   </si>
   <si>
-    <t>MIB/MS</t>
-  </si>
-  <si>
-    <t>R script</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>iPSCAstrocytes</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>mirnaArray</t>
+  </si>
+  <si>
+    <t>RCC</t>
   </si>
   <si>
     <t>iPSCMicroglia</t>
   </si>
   <si>
-    <t>mirnaArray</t>
-  </si>
-  <si>
-    <t>RCC</t>
+    <t>mirnaSeq</t>
+  </si>
+  <si>
+    <t>RData</t>
   </si>
   <si>
     <t>ISB_Taner_CollagenDomain</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
-  </si>
-  <si>
-    <t>RData</t>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>recal</t>
   </si>
   <si>
     <t>ISB_Taner_Cxcl10</t>
   </si>
   <si>
-    <t>MRI</t>
-  </si>
-  <si>
-    <t>recal</t>
+    <t>mRNAcounts</t>
+  </si>
+  <si>
+    <t>RLF</t>
   </si>
   <si>
     <t>ISB_Taner_PTN_MDK</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
-  </si>
-  <si>
-    <t>RLF</t>
+    <t>mRNAseq</t>
+  </si>
+  <si>
+    <t>rmd</t>
   </si>
   <si>
     <t>ISB_Taner_sIL10r_sIL4r</t>
   </si>
   <si>
-    <t>mRNAseq</t>
-  </si>
-  <si>
-    <t>rmd</t>
+    <t>MudPIT</t>
+  </si>
+  <si>
+    <t>saf</t>
   </si>
   <si>
     <t>ISB_Taner_TGFbeta</t>
   </si>
   <si>
-    <t>MudPIT</t>
-  </si>
-  <si>
-    <t>saf</t>
+    <t>nextGenerationTargetedSequencing</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
   <si>
     <t>Jax.IU.Pitt.Proteomics_Metabolomics_Pilot</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
-  </si>
-  <si>
-    <t>sam</t>
+    <t>Nightingale NMR</t>
+  </si>
+  <si>
+    <t>sav</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APOE4.Trem2.R47H</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
-  </si>
-  <si>
-    <t>sav</t>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_APP.PS1</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>novelty response behavior</t>
+  </si>
+  <si>
+    <t>seg</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Levetiracetam-5XFAD</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
-  </si>
-  <si>
-    <t>seg</t>
+    <t>open field test</t>
+  </si>
+  <si>
+    <t>Sentrix descriptor file</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_LOAD2.PrimaryScreen</t>
   </si>
   <si>
-    <t>open field test</t>
-  </si>
-  <si>
-    <t>Sentrix descriptor file</t>
+    <t>oxBS-Seq</t>
+  </si>
+  <si>
+    <t>sf3</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_MicrobiomePilot</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
-  </si>
-  <si>
-    <t>sf3</t>
+    <t>pharmacodynamics</t>
+  </si>
+  <si>
+    <t>sif</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_PrimaryScreen</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
-  </si>
-  <si>
-    <t>sif</t>
+    <t>pharmacokinetics</t>
+  </si>
+  <si>
+    <t>sqlite</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_StrainValidation</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
-  </si>
-  <si>
-    <t>sqlite</t>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>sra</t>
   </si>
   <si>
     <t>Jax.IU.Pitt_Verubecestat_5XFAD</t>
   </si>
   <si>
-    <t>photograph</t>
-  </si>
-  <si>
-    <t>sra</t>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>svg</t>
   </si>
   <si>
     <t>LBP</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
-  </si>
-  <si>
-    <t>svg</t>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>LillyMicroglia</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>svs</t>
+    <t>proximity extension assay</t>
+  </si>
+  <si>
+    <t>Synapse Table</t>
   </si>
   <si>
     <t>LLFS</t>
   </si>
   <si>
-    <t>proximity extension assay</t>
-  </si>
-  <si>
-    <t>Synapse Table</t>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <t>lncRNA Pilot</t>
   </si>
   <si>
-    <t>questionnaire</t>
-  </si>
-  <si>
-    <t>tab</t>
+    <t>Rader Lipidomics</t>
+  </si>
+  <si>
+    <t>tagAlign</t>
   </si>
   <si>
     <t>MARS WISCONSIN</t>
   </si>
   <si>
-    <t>Rader Lipidomics</t>
-  </si>
-  <si>
-    <t>tagAlign</t>
+    <t>Real Time PCR</t>
+  </si>
+  <si>
+    <t>tar</t>
   </si>
   <si>
     <t>MayoeGWAS</t>
   </si>
   <si>
-    <t>Real Time PCR</t>
-  </si>
-  <si>
-    <t>tar</t>
+    <t>Ribo-Seq</t>
+  </si>
+  <si>
+    <t>tbi</t>
   </si>
   <si>
     <t>MayoHippocampus</t>
   </si>
   <si>
-    <t>Ribo-Seq</t>
-  </si>
-  <si>
-    <t>tbi</t>
+    <t>rnaArray</t>
+  </si>
+  <si>
+    <t>tif</t>
   </si>
   <si>
     <t>MayoLOADGWAS</t>
   </si>
   <si>
-    <t>rnaArray</t>
-  </si>
-  <si>
-    <t>tif</t>
+    <t>rnaSeq</t>
+  </si>
+  <si>
+    <t>tranches</t>
   </si>
   <si>
     <t>MayoPilotRNAseq</t>
   </si>
   <si>
-    <t>rnaSeq</t>
-  </si>
-  <si>
-    <t>tranches</t>
+    <t>rotarod performance test</t>
+  </si>
+  <si>
+    <t>tsv</t>
   </si>
   <si>
     <t>MayoRNAseq</t>
   </si>
   <si>
-    <t>rotarod performance test</t>
-  </si>
-  <si>
-    <t>tsv</t>
+    <t>RPPA</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
   <si>
     <t>MC-BrAD</t>
   </si>
   <si>
-    <t>RPPA</t>
-  </si>
-  <si>
-    <t>txt</t>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>vcf</t>
   </si>
   <si>
     <t>MC-CAA</t>
   </si>
   <si>
-    <t>RRBS</t>
-  </si>
-  <si>
-    <t>vcf</t>
+    <t>sandwich ELISA</t>
+  </si>
+  <si>
+    <t>wiggle</t>
   </si>
   <si>
     <t>MC_snRNA</t>
   </si>
   <si>
-    <t>sandwich ELISA</t>
-  </si>
-  <si>
-    <t>wiggle</t>
+    <t>Sanger sequencing</t>
+  </si>
+  <si>
+    <t>xml</t>
   </si>
   <si>
     <t>mCITE-Seq</t>
   </si>
   <si>
-    <t>Sanger sequencing</t>
-  </si>
-  <si>
-    <t>xml</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>yaml</t>
   </si>
   <si>
     <t>MCMPS</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>yaml</t>
+    <t>scATACSeq</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
   <si>
     <t>MEF2_Resilience</t>
   </si>
   <si>
-    <t>scATACSeq</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>scCGIseq</t>
   </si>
   <si>
     <t>MindPhenomeKB</t>
   </si>
   <si>
-    <t>scCGIseq</t>
+    <t>scirnaSeq</t>
   </si>
   <si>
     <t>miR155</t>
   </si>
   <si>
-    <t>scirnaSeq</t>
+    <t>scrnaSeq</t>
   </si>
   <si>
     <t>MIT_ROSMAP_Multiomics</t>
   </si>
   <si>
-    <t>scrnaSeq</t>
+    <t>scwholeGenomeSeq</t>
   </si>
   <si>
     <t>MOA-PAD</t>
   </si>
   <si>
-    <t>scwholeGenomeSeq</t>
+    <t>SiMoA</t>
   </si>
   <si>
     <t>MODEL-AD_5XFAD</t>
   </si>
   <si>
-    <t>SiMoA</t>
+    <t>snATACSeq</t>
   </si>
   <si>
     <t>MODEL-AD_Abca7_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snATACSeq</t>
+    <t>snpArray</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_KI</t>
   </si>
   <si>
-    <t>snpArray</t>
+    <t>snrnaSeq</t>
   </si>
   <si>
     <t>MODEL-AD_APOE4_Trem2</t>
   </si>
   <si>
-    <t>snrnaSeq</t>
+    <t>spontaneous alternation</t>
   </si>
   <si>
     <t>MODEL-AD_Ceacam_KO_APOE4_Trem2</t>
   </si>
   <si>
-    <t>spontaneous alternation</t>
+    <t>STARRSeq</t>
   </si>
   <si>
     <t>MODEL-AD_hAbeta_KI</t>
   </si>
   <si>
-    <t>STARRSeq</t>
+    <t>TMT quantitation</t>
   </si>
   <si>
     <t>MODEL-AD_Harmonization</t>
   </si>
   <si>
-    <t>TMT quantitation</t>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>MODEL-AD_hCR1_KI_on_APOE4_Trem2</t>
   </si>
   <si>
-    <t>TotalRNAseq</t>
+    <t>tractionForceMicroscopy</t>
   </si>
   <si>
     <t>MODEL-AD_hTau_Trem2</t>
   </si>
   <si>
-    <t>tractionForceMicroscopy</t>
+    <t>UC Davis GCTOF</t>
   </si>
   <si>
     <t>MODEL-AD_Il1rapKO_APOE4_Trem2_exon2KO</t>
   </si>
   <si>
-    <t>UC Davis GCTOF</t>
+    <t>UCSD Untargeted Metabolomics</t>
   </si>
   <si>
     <t>MODEL-AD_Mthfr_APOE4_Trem2</t>
   </si>
   <si>
-    <t>UCSD Untargeted Metabolomics</t>
+    <t>UPLC-ESI-QTOF-MS</t>
   </si>
   <si>
     <t>MODEL-AD_Rat_F344</t>
   </si>
   <si>
-    <t>UPLC-ESI-QTOF-MS</t>
+    <t>UPLC-MSMS</t>
   </si>
   <si>
     <t>MODEL-AD_Trem2_R47H</t>
   </si>
   <si>
-    <t>UPLC-MSMS</t>
+    <t>Vernier Caliper</t>
   </si>
   <si>
     <t>MouseHAL</t>
   </si>
   <si>
-    <t>Vernier Caliper</t>
+    <t>von Frey test</t>
   </si>
   <si>
     <t>MRGWAS</t>
   </si>
   <si>
-    <t>von Frey test</t>
+    <t>westernBlot</t>
   </si>
   <si>
     <t>MSBB</t>
   </si>
   <si>
-    <t>westernBlot</t>
+    <t>wheel running</t>
   </si>
   <si>
     <t>MSBB_ArrayTissuePanel</t>
   </si>
   <si>
-    <t>wheel running</t>
+    <t>whole-cell patch clamp</t>
   </si>
   <si>
     <t>MSDM</t>
   </si>
   <si>
-    <t>whole-cell patch clamp</t>
+    <t>wholeGenomeSeq</t>
   </si>
   <si>
     <t>MSMM</t>
   </si>
   <si>
-    <t>wholeGenomeSeq</t>
+    <t>Wishart Catecholamines</t>
   </si>
   <si>
     <t>MSSMiPSC</t>
   </si>
   <si>
-    <t>Wishart Catecholamines</t>
+    <t>Wishart High Value Metabolites</t>
   </si>
   <si>
     <t>mtDNA_AD</t>
   </si>
   <si>
-    <t>Wishart High Value Metabolites</t>
+    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NAPS</t>
-  </si>
-  <si>
-    <t>Zeno Electronic Walkway</t>
   </si>
   <si>
     <t>NHP-Chimpanzee</t>
@@ -29211,9 +29214,9 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$K1 = "analysis"</formula>
+      <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
@@ -29221,8 +29224,8 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29231,9 +29234,9 @@
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$K1 = "experimentalData"</formula>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>$K1 = "analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
@@ -29242,6 +29245,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$192</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$3</formula1>
     </dataValidation>
@@ -29259,9 +29265,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$49</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$191</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$123</formula1>
@@ -30142,21 +30145,21 @@
         <v>254</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>259</v>
@@ -31390,6 +31393,11 @@
     <row r="191">
       <c r="I191" s="7" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="I192" s="7" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/FileAnnotationTemplate.xlsx
+++ b/current-excel-manifests/FileAnnotationTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="569">
   <si>
     <t>Component</t>
   </si>
@@ -1816,6 +1816,9 @@
   </si>
   <si>
     <t>Yale-ASD</t>
+  </si>
+  <si>
+    <t>Zhao_USF_Study</t>
   </si>
 </sst>
 </file>
@@ -1941,6 +1944,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29214,23 +29221,23 @@
       <formula>$M1 = "metadata"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
+  <conditionalFormatting sqref="F1:F1000">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$K1 = "experimentalData"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29245,9 +29252,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$192</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
       <formula1>Sheet2!$P$2:$P$3</formula1>
     </dataValidation>
@@ -29284,6 +29288,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$7</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$193</formula1>
+    </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -31400,6 +31407,11 @@
         <v>567</v>
       </c>
     </row>
+    <row r="193">
+      <c r="I193" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
